--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62E00BD8-08F9-4F81-873F-9398AB42593F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D16AA1-D6FE-483D-9EC4-697D3650F03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Keywords" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -228,7 +228,34 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -308,34 +335,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -364,18 +364,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Table2" displayName="Table2" ref="A1:C28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C28" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C28" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
     <sortCondition ref="C2:C28"/>
     <sortCondition ref="A2:A28"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="1">
-      <calculatedColumnFormula>LEN(Table2[[#This Row],[Stem]])</calculatedColumnFormula>
+      <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -729,7 +729,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -741,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -753,7 +753,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -765,7 +765,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -777,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -825,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -837,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -849,7 +849,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -861,7 +861,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -873,7 +873,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -885,7 +885,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -897,7 +897,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -909,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -921,7 +921,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -969,7 +969,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -981,7 +981,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -993,7 +993,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1005,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1017,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1">
-        <f>LEN(Table2[[#This Row],[Stem]])</f>
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D16AA1-D6FE-483D-9EC4-697D3650F03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43694A54-BC11-4E20-80E3-FE9C90A53C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Stem</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Baker</t>
   </si>
   <si>
-    <t>Chef</t>
-  </si>
-  <si>
     <t>Fish</t>
   </si>
   <si>
@@ -160,6 +157,18 @@
   </si>
   <si>
     <t>Const</t>
+  </si>
+  <si>
+    <t>Monte</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Chefs</t>
+  </si>
+  <si>
+    <t>Meats</t>
   </si>
 </sst>
 </file>
@@ -364,11 +373,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C28" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C28" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
-    <sortCondition ref="C2:C28"/>
-    <sortCondition ref="A2:A28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C31" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C31" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
+    <sortCondition ref="C2:C31"/>
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="2"/>
@@ -678,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -694,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -714,38 +723,38 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -757,64 +766,64 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -822,7 +831,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -834,11 +843,11 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -846,11 +855,11 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -858,11 +867,11 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -874,7 +883,7 @@
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -882,146 +891,182 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B28" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43694A54-BC11-4E20-80E3-FE9C90A53C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78CB70A-9159-4476-A64C-F2771A75109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Stem</t>
   </si>
@@ -169,6 +169,24 @@
   </si>
   <si>
     <t>Meats</t>
+  </si>
+  <si>
+    <t>Kinde</t>
+  </si>
+  <si>
+    <t>Crech</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Chemi</t>
+  </si>
+  <si>
+    <t>Whole</t>
+  </si>
+  <si>
+    <t>DHL</t>
   </si>
 </sst>
 </file>
@@ -224,7 +242,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -373,18 +401,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C31" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C31" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
-    <sortCondition ref="C2:C31"/>
-    <sortCondition ref="A2:A31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C37" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:C37" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
+    <sortCondition ref="C2:C37"/>
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="2">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -687,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -747,7 +775,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -759,7 +787,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -771,79 +799,79 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -855,7 +883,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -867,11 +895,11 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -879,11 +907,11 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -891,11 +919,11 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -903,11 +931,11 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -915,7 +943,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -927,55 +955,55 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -987,89 +1015,164 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B37" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A37">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78CB70A-9159-4476-A64C-F2771A75109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E06D3-A9ED-41AB-B7E1-D24C00F70FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Stem</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Sports</t>
   </si>
   <si>
-    <t>Whare</t>
-  </si>
-  <si>
     <t>Logistics</t>
   </si>
   <si>
@@ -187,6 +184,15 @@
   </si>
   <si>
     <t>DHL</t>
+  </si>
+  <si>
+    <t>Woolw</t>
+  </si>
+  <si>
+    <t>Wareh</t>
+  </si>
+  <si>
+    <t>Ernst</t>
   </si>
 </sst>
 </file>
@@ -401,11 +407,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C37" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:C37" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
-    <sortCondition ref="C2:C37"/>
-    <sortCondition ref="A2:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C39" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:C39" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
+    <sortCondition ref="C2:C39"/>
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="3"/>
@@ -715,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -731,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -751,7 +757,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -775,7 +781,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -787,7 +793,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -811,7 +817,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -835,7 +841,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -895,7 +901,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -943,7 +949,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -991,7 +997,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1003,19 +1009,19 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1027,7 +1033,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1039,7 +1045,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1051,31 +1057,31 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1087,71 +1093,71 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B33" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>14</v>
@@ -1159,18 +1165,42 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B39" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A37">
+  <conditionalFormatting sqref="A2:A39">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E06D3-A9ED-41AB-B7E1-D24C00F70FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60186B-604A-4F48-91B2-776AD3C4A0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Stem</t>
   </si>
@@ -193,6 +193,63 @@
   </si>
   <si>
     <t>Ernst</t>
+  </si>
+  <si>
+    <t>Foods</t>
+  </si>
+  <si>
+    <t>Logis</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>IGA</t>
+  </si>
+  <si>
+    <t>Justi</t>
+  </si>
+  <si>
+    <t>Corrections</t>
+  </si>
+  <si>
+    <t>Facto</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Early</t>
+  </si>
+  <si>
+    <t>Reman</t>
+  </si>
+  <si>
+    <t>Shopp</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Coffe</t>
+  </si>
+  <si>
+    <t>Food &amp; Drink</t>
+  </si>
+  <si>
+    <t>Homes</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t>Ortho</t>
   </si>
 </sst>
 </file>
@@ -248,7 +305,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -407,18 +474,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C39" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:C39" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
-    <sortCondition ref="C2:C39"/>
-    <sortCondition ref="A2:A39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C54" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:C54" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C54">
+    <sortCondition ref="C2:C54"/>
+    <sortCondition ref="A2:A54"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="3">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -793,7 +860,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -805,7 +872,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -817,7 +884,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -829,379 +896,562 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B54" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A39">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A2:A21 A24:A43 A45:A54">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:A23">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60186B-604A-4F48-91B2-776AD3C4A0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C8F40A-781D-4F34-A623-BD8C2793D57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>Stem</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>Ortho</t>
+  </si>
+  <si>
+    <t>Resta</t>
+  </si>
+  <si>
+    <t>Conce</t>
+  </si>
+  <si>
+    <t>Squar</t>
   </si>
 </sst>
 </file>
@@ -305,7 +314,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -474,18 +493,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C54" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:C54" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C54">
-    <sortCondition ref="C2:C54"/>
-    <sortCondition ref="A2:A54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C57" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C57" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C57">
+    <sortCondition ref="C2:C57"/>
+    <sortCondition ref="A2:A57"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="4">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -788,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -992,11 +1011,11 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>67</v>
@@ -1004,11 +1023,11 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>67</v>
@@ -1016,7 +1035,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1028,11 +1047,11 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>67</v>
@@ -1040,7 +1059,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1052,11 +1071,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>67</v>
@@ -1064,7 +1083,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1076,11 +1095,11 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>67</v>
@@ -1088,11 +1107,11 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>67</v>
@@ -1100,7 +1119,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1112,7 +1131,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1124,11 +1143,11 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>67</v>
@@ -1136,19 +1155,19 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1160,11 +1179,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>33</v>
@@ -1172,11 +1191,11 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>33</v>
@@ -1184,19 +1203,19 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1208,11 +1227,11 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
@@ -1220,11 +1239,11 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
@@ -1232,7 +1251,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1244,7 +1263,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1256,31 +1275,31 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1292,7 +1311,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1304,23 +1323,23 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>36</v>
@@ -1328,7 +1347,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1340,7 +1359,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1352,7 +1371,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1364,23 +1383,23 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>14</v>
@@ -1388,11 +1407,11 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>14</v>
@@ -1400,7 +1419,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1412,46 +1431,85 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B57" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A21 A24:A43 A45:A54">
+  <conditionalFormatting sqref="A2:A16 A46:A57 A18:A22 A25:A44">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A24">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A23">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C8F40A-781D-4F34-A623-BD8C2793D57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36988F8D-7B98-40BD-ACCA-351367D37C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>Stem</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Squar</t>
+  </si>
+  <si>
+    <t>Clini</t>
   </si>
 </sst>
 </file>
@@ -493,11 +496,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C57" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C57" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C57">
-    <sortCondition ref="C2:C57"/>
-    <sortCondition ref="A2:A57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C58" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C58" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C58">
+    <sortCondition ref="C2:C58"/>
+    <sortCondition ref="A2:A58"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="5"/>
@@ -807,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1227,7 +1230,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1239,11 +1242,11 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
@@ -1251,11 +1254,11 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>17</v>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1287,31 +1290,31 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1323,7 +1326,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1335,23 +1338,23 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>36</v>
@@ -1359,7 +1362,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1371,7 +1374,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1383,7 +1386,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1395,23 +1398,23 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>14</v>
@@ -1419,11 +1422,11 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1443,31 +1446,31 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1491,18 +1494,30 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B58" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A16 A46:A57 A18:A22 A25:A44">
+  <conditionalFormatting sqref="A2:A16 A47:A58 A18:A22 A25:A45">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A24">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36988F8D-7B98-40BD-ACCA-351367D37C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74572F3-1875-4801-9CA1-B46ED8C863D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>Stem</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Facto</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
     <t>Bar</t>
   </si>
   <si>
@@ -262,6 +259,42 @@
   </si>
   <si>
     <t>Clini</t>
+  </si>
+  <si>
+    <t>Healt</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Distr</t>
+  </si>
+  <si>
+    <t>Pharm</t>
+  </si>
+  <si>
+    <t>Osteo</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Presc</t>
+  </si>
+  <si>
+    <t>Accom</t>
+  </si>
+  <si>
+    <t>Unive</t>
+  </si>
+  <si>
+    <t>Cance</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Bever</t>
   </si>
 </sst>
 </file>
@@ -317,7 +350,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -496,18 +569,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C58" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C58" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C58">
-    <sortCondition ref="C2:C58"/>
-    <sortCondition ref="A2:A58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C69" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C69" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C69">
+    <sortCondition ref="C2:C69"/>
+    <sortCondition ref="A2:A69"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="8">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -810,11 +883,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -882,7 +953,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -942,7 +1013,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -954,19 +1025,19 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -978,19 +1049,19 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1002,271 +1073,271 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1278,7 +1349,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1290,7 +1361,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1302,229 +1373,366 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A16 A47:A58 A18:A22 A25:A45">
+  <conditionalFormatting sqref="A2:A19 A58:A69 A22:A26 A29:A56">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A28">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A24">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="A20:A21">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:B69">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74572F3-1875-4801-9CA1-B46ED8C863D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B0CB74-01B1-4069-9AD1-7ADC92B16B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>Stem</t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>Bever</t>
+  </si>
+  <si>
+    <t>Socia</t>
+  </si>
+  <si>
+    <t>Stati</t>
+  </si>
+  <si>
+    <t>Public Transport</t>
   </si>
 </sst>
 </file>
@@ -569,11 +578,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C69" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C69" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C69">
-    <sortCondition ref="C2:C69"/>
-    <sortCondition ref="A2:A69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C71" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C71" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C71">
+    <sortCondition ref="C2:C71"/>
+    <sortCondition ref="A2:A71"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
@@ -883,9 +892,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1013,19 +1024,19 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1037,19 +1048,19 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1061,19 +1072,19 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1085,7 +1096,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1097,7 +1108,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1109,23 +1120,23 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>66</v>
@@ -1133,11 +1144,11 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>66</v>
@@ -1145,11 +1156,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>66</v>
@@ -1157,11 +1168,11 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>66</v>
@@ -1169,7 +1180,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1181,11 +1192,11 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>66</v>
@@ -1193,7 +1204,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1205,11 +1216,11 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>66</v>
@@ -1217,7 +1228,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1229,11 +1240,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -1241,11 +1252,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -1253,7 +1264,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1265,7 +1276,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1277,7 +1288,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1289,19 +1300,19 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1313,11 +1324,11 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>33</v>
@@ -1325,11 +1336,11 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>33</v>
@@ -1337,19 +1348,19 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1361,7 +1372,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1373,7 +1384,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1385,7 +1396,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1397,7 +1408,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1409,7 +1420,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1421,7 +1432,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1433,7 +1444,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1445,7 +1456,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1457,19 +1468,19 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1481,7 +1492,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1493,19 +1504,19 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1517,7 +1528,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1529,7 +1540,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1541,23 +1552,23 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>36</v>
@@ -1565,7 +1576,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1577,7 +1588,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1589,7 +1600,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1601,7 +1612,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1613,23 +1624,23 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
@@ -1637,11 +1648,11 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>14</v>
@@ -1649,7 +1660,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1661,43 +1672,43 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1709,30 +1720,54 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B71" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A19 A58:A69 A22:A26 A29:A56">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="A28:A29">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A28">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="A21:A22">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B69">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B2:B71">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A20 A59:A71 A23:A27 A30:A57">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B0CB74-01B1-4069-9AD1-7ADC92B16B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771913B8-76FE-4F6B-AB76-BD86E36B121F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>Stem</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Public Transport</t>
+  </si>
+  <si>
+    <t>Excav</t>
   </si>
 </sst>
 </file>
@@ -359,37 +362,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -578,18 +551,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C71" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C71" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C71">
-    <sortCondition ref="C2:C71"/>
-    <sortCondition ref="A2:A71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C72" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:C72" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C72">
+    <sortCondition ref="C2:C72"/>
+    <sortCondition ref="A2:A72"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="5">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -892,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1060,19 +1033,19 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1084,19 +1057,19 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1108,7 +1081,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1120,7 +1093,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1132,23 +1105,23 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>66</v>
@@ -1156,11 +1129,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>66</v>
@@ -1168,11 +1141,11 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>66</v>
@@ -1180,11 +1153,11 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>66</v>
@@ -1192,7 +1165,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1204,11 +1177,11 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>66</v>
@@ -1216,7 +1189,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1228,11 +1201,11 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>66</v>
@@ -1240,7 +1213,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1252,11 +1225,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -1264,11 +1237,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>66</v>
@@ -1276,7 +1249,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1288,7 +1261,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1300,7 +1273,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1312,19 +1285,19 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1336,11 +1309,11 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>33</v>
@@ -1348,11 +1321,11 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>33</v>
@@ -1360,19 +1333,19 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1384,7 +1357,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1396,7 +1369,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1408,7 +1381,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1420,7 +1393,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1432,7 +1405,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1444,7 +1417,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1456,7 +1429,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1468,7 +1441,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1480,19 +1453,19 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1504,7 +1477,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1516,19 +1489,19 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1540,7 +1513,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1552,7 +1525,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1564,23 +1537,23 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>36</v>
@@ -1588,7 +1561,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1600,7 +1573,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1612,7 +1585,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1624,7 +1597,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1636,23 +1609,23 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>14</v>
@@ -1660,11 +1633,11 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
@@ -1672,7 +1645,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1684,43 +1657,43 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1732,7 +1705,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1744,29 +1717,41 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B72" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:A29">
+  <conditionalFormatting sqref="A29:A30">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A22">
+  <conditionalFormatting sqref="A22:A23">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B71">
+  <conditionalFormatting sqref="B2:B72">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A20 A59:A71 A23:A27 A30:A57">
+  <conditionalFormatting sqref="A2:A21 A60:A72 A24:A28 A31:A58">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771913B8-76FE-4F6B-AB76-BD86E36B121F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1A97AA-9FEA-49A0-9E53-DF8E5F88AFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>Stem</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Excav</t>
+  </si>
+  <si>
+    <t>Plumb</t>
   </si>
 </sst>
 </file>
@@ -551,11 +554,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C72" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:C72" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C72">
-    <sortCondition ref="C2:C72"/>
-    <sortCondition ref="A2:A72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C73" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:C73" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
+    <sortCondition ref="C2:C73"/>
+    <sortCondition ref="A2:A73"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="6"/>
@@ -865,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1045,19 +1048,19 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1069,19 +1072,19 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1093,7 +1096,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1117,23 +1120,23 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>66</v>
@@ -1141,11 +1144,11 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>66</v>
@@ -1153,11 +1156,11 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>66</v>
@@ -1165,11 +1168,11 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>66</v>
@@ -1177,7 +1180,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1189,11 +1192,11 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>66</v>
@@ -1201,7 +1204,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1213,11 +1216,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1237,11 +1240,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>66</v>
@@ -1249,11 +1252,11 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>66</v>
@@ -1261,7 +1264,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1297,19 +1300,19 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1321,11 +1324,11 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>33</v>
@@ -1333,11 +1336,11 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>33</v>
@@ -1345,19 +1348,19 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1381,7 +1384,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1465,19 +1468,19 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1501,19 +1504,19 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1537,7 +1540,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1549,23 +1552,23 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>36</v>
@@ -1573,7 +1576,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1585,7 +1588,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1609,7 +1612,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1621,23 +1624,23 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
@@ -1645,11 +1648,11 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1669,43 +1672,43 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1717,7 +1720,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1729,29 +1732,41 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B73" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A29:A30">
+  <conditionalFormatting sqref="A30:A31">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A23">
+  <conditionalFormatting sqref="A23:A24">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B72">
+  <conditionalFormatting sqref="B2:B73">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A21 A60:A72 A24:A28 A31:A58">
+  <conditionalFormatting sqref="A2:A22 A61:A73 A25:A29 A32:A59">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1A97AA-9FEA-49A0-9E53-DF8E5F88AFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F17FF2-2FFF-4507-9593-9434BF9B25C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
   <si>
     <t>Stem</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>Plumb</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Polic</t>
+  </si>
+  <si>
+    <t>Government</t>
   </si>
 </sst>
 </file>
@@ -554,11 +563,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C73" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:C73" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
-    <sortCondition ref="C2:C73"/>
-    <sortCondition ref="A2:A73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C75" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:C75" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
+    <sortCondition ref="C2:C75"/>
+    <sortCondition ref="A2:A75"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="6"/>
@@ -868,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -952,11 +961,11 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -964,7 +973,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -976,7 +985,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -988,19 +997,19 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1012,19 +1021,19 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1036,7 +1045,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1048,7 +1057,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1060,19 +1069,19 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1084,19 +1093,19 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1108,7 +1117,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1120,7 +1129,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1132,23 +1141,23 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>66</v>
@@ -1156,11 +1165,11 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>66</v>
@@ -1168,11 +1177,11 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>66</v>
@@ -1180,11 +1189,11 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>66</v>
@@ -1192,7 +1201,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1204,11 +1213,11 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>66</v>
@@ -1216,7 +1225,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1228,11 +1237,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -1240,7 +1249,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1252,11 +1261,11 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>66</v>
@@ -1264,11 +1273,11 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>66</v>
@@ -1276,7 +1285,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1288,7 +1297,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1300,7 +1309,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1312,19 +1321,19 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1336,11 +1345,11 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>33</v>
@@ -1348,11 +1357,11 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>33</v>
@@ -1360,19 +1369,19 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1384,7 +1393,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1396,7 +1405,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1408,7 +1417,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1420,7 +1429,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1432,7 +1441,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1444,7 +1453,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1456,7 +1465,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1468,7 +1477,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1480,19 +1489,19 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1504,7 +1513,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1516,19 +1525,19 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1540,7 +1549,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1552,7 +1561,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1564,23 +1573,23 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>36</v>
@@ -1588,7 +1597,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1600,7 +1609,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1612,7 +1621,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1624,7 +1633,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1636,23 +1645,23 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -1660,11 +1669,11 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
@@ -1672,7 +1681,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1684,55 +1693,55 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1744,29 +1753,53 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B75" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A30:A31">
+  <conditionalFormatting sqref="A31:A32">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A24">
+  <conditionalFormatting sqref="A24:A25">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B73">
+  <conditionalFormatting sqref="B2:B75">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A22 A61:A73 A25:A29 A32:A59">
+  <conditionalFormatting sqref="A2:A23 A62:A75 A26:A30 A33:A60">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F17FF2-2FFF-4507-9593-9434BF9B25C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AED357B-3E1C-4E74-8DC5-8B4E9C0158C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>Stem</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>Government</t>
+  </si>
+  <si>
+    <t>Emerg</t>
   </si>
 </sst>
 </file>
@@ -563,11 +566,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C75" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:C75" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
-    <sortCondition ref="C2:C75"/>
-    <sortCondition ref="A2:A75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C76" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:C76" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C76">
+    <sortCondition ref="C2:C76"/>
+    <sortCondition ref="A2:A76"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="6"/>
@@ -877,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1465,7 +1468,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1477,7 +1480,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1501,19 +1504,19 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1537,19 +1540,19 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1561,7 +1564,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1573,7 +1576,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1585,23 +1588,23 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>36</v>
@@ -1609,7 +1612,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1621,7 +1624,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1645,7 +1648,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1657,23 +1660,23 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
@@ -1681,11 +1684,11 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>14</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1705,55 +1708,55 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1765,7 +1768,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1777,13 +1780,25 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B76" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1794,12 +1809,12 @@
   <conditionalFormatting sqref="A24:A25">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B75">
+  <conditionalFormatting sqref="B2:B76">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A23 A62:A75 A26:A30 A33:A60">
+  <conditionalFormatting sqref="A2:A23 A63:A76 A26:A30 A33:A61">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AED357B-3E1C-4E74-8DC5-8B4E9C0158C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B5362E-9FF8-4717-87DC-EA30E5C8CE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>Stem</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>Emerg</t>
+  </si>
+  <si>
+    <t>Plast</t>
+  </si>
+  <si>
+    <t>Best&amp;</t>
+  </si>
+  <si>
+    <t>Retai</t>
   </si>
 </sst>
 </file>
@@ -369,10 +378,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,11 +576,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C76" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:C76" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C76">
-    <sortCondition ref="C2:C76"/>
-    <sortCondition ref="A2:A76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C79" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:C79" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C79">
+    <sortCondition ref="C2:C79"/>
+    <sortCondition ref="A2:A79"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="6"/>
@@ -880,11 +890,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1071,32 +1079,32 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1108,19 +1116,19 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1132,7 +1140,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1144,7 +1152,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1156,23 +1164,23 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>66</v>
@@ -1180,11 +1188,11 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>66</v>
@@ -1192,11 +1200,11 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>66</v>
@@ -1204,11 +1212,11 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>66</v>
@@ -1216,7 +1224,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1228,11 +1236,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -1240,7 +1248,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1252,11 +1260,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>66</v>
@@ -1264,7 +1272,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1276,11 +1284,11 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>66</v>
@@ -1288,11 +1296,11 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>66</v>
@@ -1300,7 +1308,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1312,7 +1320,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1324,7 +1332,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1336,19 +1344,19 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1360,11 +1368,11 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>33</v>
@@ -1372,11 +1380,11 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
@@ -1384,19 +1392,19 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1408,7 +1416,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1420,7 +1428,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1432,7 +1440,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1444,7 +1452,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1456,7 +1464,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1468,7 +1476,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1480,7 +1488,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1492,7 +1500,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1504,7 +1512,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1516,19 +1524,19 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1540,7 +1548,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1552,19 +1560,19 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1576,7 +1584,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1588,7 +1596,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1600,23 +1608,23 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>36</v>
@@ -1624,7 +1632,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1636,7 +1644,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1648,7 +1656,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1660,7 +1668,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1672,23 +1680,23 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>14</v>
@@ -1696,11 +1704,11 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>14</v>
@@ -1708,7 +1716,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1720,67 +1728,67 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="A74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1791,31 +1799,67 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B79" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A31:A32">
+  <conditionalFormatting sqref="A32:A33">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A25">
+  <conditionalFormatting sqref="A25:A26">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B76">
+  <conditionalFormatting sqref="B2:B79">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A23 A63:A76 A26:A30 A33:A61">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="A64:A73 A2:A15 A27:A31 A34:A62 A17:A24 A75 A77:A79">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B5362E-9FF8-4717-87DC-EA30E5C8CE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F46EC0F-A9CA-4C8C-8570-F753EF6949E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
   <si>
     <t>Stem</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Retai</t>
+  </si>
+  <si>
+    <t>Day-C</t>
   </si>
 </sst>
 </file>
@@ -576,11 +579,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C79" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:C79" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C79">
-    <sortCondition ref="C2:C79"/>
-    <sortCondition ref="A2:A79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C80" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:C80" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C80">
+    <sortCondition ref="C2:C80"/>
+    <sortCondition ref="A2:A80"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="6"/>
@@ -890,9 +893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -959,24 +964,24 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -984,11 +989,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
@@ -996,7 +1001,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1008,7 +1013,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1020,19 +1025,19 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1044,19 +1049,19 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1068,7 +1073,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1079,44 +1084,44 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1128,19 +1133,19 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1152,7 +1157,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1164,7 +1169,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1176,23 +1181,23 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>66</v>
@@ -1200,11 +1205,11 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>66</v>
@@ -1212,11 +1217,11 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>66</v>
@@ -1224,11 +1229,11 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>66</v>
@@ -1236,7 +1241,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1248,11 +1253,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -1260,7 +1265,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1272,11 +1277,11 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>66</v>
@@ -1284,7 +1289,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1296,11 +1301,11 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>66</v>
@@ -1308,11 +1313,11 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>66</v>
@@ -1320,7 +1325,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1332,7 +1337,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1344,7 +1349,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1356,19 +1361,19 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1380,11 +1385,11 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
@@ -1392,11 +1397,11 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>33</v>
@@ -1404,19 +1409,19 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1428,7 +1433,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1440,7 +1445,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1452,7 +1457,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1464,7 +1469,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1476,7 +1481,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1488,7 +1493,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1500,7 +1505,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1512,7 +1517,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1524,7 +1529,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1536,19 +1541,19 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1560,7 +1565,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1572,19 +1577,19 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1596,7 +1601,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1608,7 +1613,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1620,23 +1625,23 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>36</v>
@@ -1644,7 +1649,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1656,7 +1661,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1668,7 +1673,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1680,7 +1685,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1692,23 +1697,23 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>14</v>
@@ -1716,11 +1721,11 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>14</v>
@@ -1728,7 +1733,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1740,91 +1745,91 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B75" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B76" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1836,29 +1841,41 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A32:A33">
+  <conditionalFormatting sqref="A33:A34">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A26">
+  <conditionalFormatting sqref="A26:A27">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B79">
+  <conditionalFormatting sqref="B2:B80">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A73 A2:A15 A27:A31 A34:A62 A17:A24 A75 A77:A79">
+  <conditionalFormatting sqref="A65:A74 A2:A16 A28:A32 A35:A63 A18:A25 A76 A78:A80">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F46EC0F-A9CA-4C8C-8570-F753EF6949E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA43408-5409-4352-A044-1B8A4F052DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
   <si>
     <t>Stem</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>Day-C</t>
+  </si>
+  <si>
+    <t>Freig</t>
+  </si>
+  <si>
+    <t>McDon</t>
   </si>
 </sst>
 </file>
@@ -579,11 +585,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C80" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:C80" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C80">
-    <sortCondition ref="C2:C80"/>
-    <sortCondition ref="A2:A80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C82" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:C82" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C82">
+    <sortCondition ref="C2:C82"/>
+    <sortCondition ref="A2:A82"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="6"/>
@@ -893,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1324,20 +1330,20 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1349,7 +1355,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1361,7 +1367,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1373,19 +1379,19 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1397,11 +1403,11 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>33</v>
@@ -1409,11 +1415,11 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>33</v>
@@ -1421,19 +1427,19 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1445,7 +1451,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1457,7 +1463,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1469,7 +1475,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1481,7 +1487,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1493,7 +1499,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1505,7 +1511,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1517,7 +1523,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1529,7 +1535,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1577,7 +1583,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1589,19 +1595,19 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1613,7 +1619,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1625,7 +1631,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1637,23 +1643,23 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>36</v>
@@ -1661,7 +1667,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1672,20 +1678,20 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="A65" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1709,31 +1715,31 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1745,11 +1751,11 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>14</v>
@@ -1757,67 +1763,67 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>64</v>
+      <c r="A75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1829,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1840,26 +1846,50 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="A79" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1870,12 +1900,12 @@
   <conditionalFormatting sqref="A26:A27">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B80">
+  <conditionalFormatting sqref="B2:B82">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A74 A2:A16 A28:A32 A35:A63 A18:A25 A76 A78:A80">
+  <conditionalFormatting sqref="A67:A76 A2:A16 A28:A32 A35:A65 A18:A25 A78 A80:A82">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA43408-5409-4352-A044-1B8A4F052DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CDE7D0-272A-4F2F-A971-63BA26019FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
   <si>
     <t>Stem</t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t>McDon</t>
+  </si>
+  <si>
+    <t>Manuf</t>
+  </si>
+  <si>
+    <t>Autom</t>
+  </si>
+  <si>
+    <t>Natio</t>
   </si>
 </sst>
 </file>
@@ -387,16 +396,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -585,18 +625,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C82" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:C82" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C82">
-    <sortCondition ref="C2:C82"/>
-    <sortCondition ref="A2:A82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C85" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C85" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C85">
+    <sortCondition ref="C2:C85"/>
+    <sortCondition ref="A2:A85"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="8">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -899,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1102,44 +1142,44 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1151,19 +1191,19 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1175,7 +1215,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1187,7 +1227,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1199,23 +1239,23 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>66</v>
@@ -1223,11 +1263,11 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>66</v>
@@ -1235,11 +1275,11 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>66</v>
@@ -1247,11 +1287,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -1259,7 +1299,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1271,11 +1311,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>66</v>
@@ -1283,7 +1323,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1295,11 +1335,11 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>66</v>
@@ -1307,7 +1347,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1319,43 +1359,43 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1367,7 +1407,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1379,7 +1419,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1391,19 +1431,19 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1415,11 +1455,11 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>33</v>
@@ -1427,11 +1467,11 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>33</v>
@@ -1439,43 +1479,43 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>17</v>
+      <c r="A47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1487,7 +1527,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1499,7 +1539,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1511,7 +1551,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1523,7 +1563,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1535,7 +1575,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1547,7 +1587,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1559,7 +1599,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1571,79 +1611,79 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1655,59 +1695,59 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>36</v>
+      <c r="A64" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>36</v>
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="A66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>36</v>
@@ -1715,7 +1755,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1726,152 +1766,152 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="A69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>64</v>
+      <c r="A77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>64</v>
+      <c r="A79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="A80" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1882,31 +1922,80 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B85" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A33:A34">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="A34:A35">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A27">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="A27:A28">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B82">
+  <conditionalFormatting sqref="B65:B85 B2:B46 B48:B63">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A79 A29:A33 A36:A46 A65:A69 A2:A17 A19:A26 A81 A83:A85 A48:A63">
+    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A76 A2:A16 A28:A32 A35:A65 A18:A25 A78 A80:A82">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CDE7D0-272A-4F2F-A971-63BA26019FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E6EC7-C63A-43F1-8D75-C6417C25647C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1119,19 +1119,19 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1154,44 +1154,44 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1203,19 +1203,19 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1251,23 +1251,23 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>66</v>
@@ -1275,11 +1275,11 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>66</v>
@@ -1287,11 +1287,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -1299,11 +1299,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1323,11 +1323,11 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>66</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1347,11 +1347,11 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>66</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1371,43 +1371,43 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1443,19 +1443,19 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1467,11 +1467,11 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>33</v>
@@ -1479,11 +1479,11 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>33</v>
@@ -1491,43 +1491,43 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B47" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B48" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1647,19 +1647,19 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1683,19 +1683,19 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1706,92 +1706,92 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B65" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1827,23 +1827,23 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>14</v>
@@ -1851,11 +1851,11 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>14</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1875,49 +1875,49 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B80" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1970,31 +1970,31 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A34:A35">
+  <conditionalFormatting sqref="A35:A36">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A28">
+  <conditionalFormatting sqref="A28:A29">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B85 B2:B46 B48:B63">
+  <conditionalFormatting sqref="B49:B64 B66:B85 B2:B47">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A79 A29:A33 A36:A46 A65:A69 A2:A17 A19:A26 A81 A83:A85 A48:A63">
+  <conditionalFormatting sqref="A83:A85 A72:A80 A30:A34 A37:A47 A66:A70 A2:A18 A20:A27 A49:A64">
     <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
+  <conditionalFormatting sqref="B65">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+  <conditionalFormatting sqref="B48">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A48">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E6EC7-C63A-43F1-8D75-C6417C25647C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2700B187-5217-4E0B-B5ED-23489A8535EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Stem</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>Natio</t>
+  </si>
+  <si>
+    <t>Carav</t>
+  </si>
+  <si>
+    <t>Hotel</t>
   </si>
 </sst>
 </file>
@@ -625,11 +631,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C85" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C85" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C85">
-    <sortCondition ref="C2:C85"/>
-    <sortCondition ref="A2:A85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C87" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C87" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C87">
+    <sortCondition ref="C2:C87"/>
+    <sortCondition ref="A2:A87"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
@@ -939,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1682,56 +1688,56 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="A62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1742,56 +1748,56 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
-        <v>103</v>
+      <c r="A67" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B67" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1802,20 +1808,20 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="A72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1827,7 +1833,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1839,31 +1845,31 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1875,11 +1881,11 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>14</v>
@@ -1887,85 +1893,109 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B83" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B84" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B87" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1976,15 +2006,15 @@
   <conditionalFormatting sqref="A28:A29">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B64 B66:B85 B2:B47">
+  <conditionalFormatting sqref="B68:B87 B2:B47 B49:B66">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:A85 A72:A80 A30:A34 A37:A47 A66:A70 A2:A18 A20:A27 A49:A64">
+  <conditionalFormatting sqref="A85:A87 A74:A82 A30:A34 A37:A47 A68:A72 A2:A18 A20:A27 A49:A66">
     <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+  <conditionalFormatting sqref="B67">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2700B187-5217-4E0B-B5ED-23489A8535EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA39F0BD-4416-43AD-8638-CEA04863B5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
   <si>
     <t>Stem</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>Hotel</t>
+  </si>
+  <si>
+    <t>Works</t>
+  </si>
+  <si>
+    <t>Colds</t>
   </si>
 </sst>
 </file>
@@ -631,11 +637,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C87" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C87" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C87">
-    <sortCondition ref="C2:C87"/>
-    <sortCondition ref="A2:A87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C89" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C89" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C89">
+    <sortCondition ref="C2:C89"/>
+    <sortCondition ref="A2:A89"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
@@ -945,11 +951,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1196,20 +1200,20 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
+      <c r="A21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1221,19 +1225,19 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1245,7 +1249,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1257,7 +1261,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1269,23 +1273,23 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>66</v>
@@ -1293,11 +1297,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -1305,11 +1309,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -1317,11 +1321,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>66</v>
@@ -1329,7 +1333,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1341,11 +1345,11 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>66</v>
@@ -1353,7 +1357,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1365,11 +1369,11 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>66</v>
@@ -1377,7 +1381,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1389,43 +1393,43 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1437,7 +1441,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1449,7 +1453,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1461,19 +1465,19 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1485,11 +1489,11 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>33</v>
@@ -1497,11 +1501,11 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>33</v>
@@ -1509,43 +1513,43 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B48" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B49" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1557,7 +1561,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1569,7 +1573,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1581,7 +1585,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1593,7 +1597,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1605,7 +1609,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1617,7 +1621,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1629,7 +1633,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1641,7 +1645,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1653,7 +1657,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1665,19 +1669,19 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1688,56 +1692,56 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B63" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B64" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1748,80 +1752,80 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B68" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B70" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B72" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1832,20 +1836,20 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="A74" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1857,7 +1861,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1869,31 +1873,31 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1905,11 +1909,11 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
@@ -1917,114 +1921,138 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B84" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="B85" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B86" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B89" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A35:A36">
+  <conditionalFormatting sqref="A36:A37">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
+  <conditionalFormatting sqref="A29:A30">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B87 B2:B47 B49:B66">
+  <conditionalFormatting sqref="B69:B89 B2:B48 B50:B67">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85:A87 A74:A82 A30:A34 A37:A47 A68:A72 A2:A18 A20:A27 A49:A66">
+  <conditionalFormatting sqref="A87:A89 A76:A84 A31:A35 A38:A48 A69:A74 A2:A18 A20:A28 A50:A67">
     <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
+  <conditionalFormatting sqref="B68">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
+  <conditionalFormatting sqref="B49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A49">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA39F0BD-4416-43AD-8638-CEA04863B5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED77A5F-45B6-4B6F-A210-5F5BA5211B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>Stem</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>Colds</t>
+  </si>
+  <si>
+    <t>Priso</t>
+  </si>
+  <si>
+    <t>Seafo</t>
   </si>
 </sst>
 </file>
@@ -637,11 +643,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C89" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C89" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C89">
-    <sortCondition ref="C2:C89"/>
-    <sortCondition ref="A2:A89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C91" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C91" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C91">
+    <sortCondition ref="C2:C91"/>
+    <sortCondition ref="A2:A91"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
@@ -951,9 +957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1464,32 +1472,32 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="A43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1501,11 +1509,11 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>33</v>
@@ -1513,11 +1521,11 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>33</v>
@@ -1525,55 +1533,55 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B49" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B50" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
+      <c r="A51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1585,7 +1593,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1597,7 +1605,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1609,7 +1617,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1621,7 +1629,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1633,7 +1641,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1645,7 +1653,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1657,7 +1665,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1669,7 +1677,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1681,43 +1689,43 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="A63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1729,55 +1737,55 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1788,68 +1796,68 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B72" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B73" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1860,20 +1868,20 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="A76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1885,7 +1893,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1897,31 +1905,31 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1933,11 +1941,11 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
@@ -1945,85 +1953,109 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B86" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="3" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B87" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B91" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2034,25 +2066,25 @@
   <conditionalFormatting sqref="A29:A30">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B89 B2:B48 B50:B67">
+  <conditionalFormatting sqref="B71:B91 B51:B69 B2:B49">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:A89 A76:A84 A31:A35 A38:A48 A69:A74 A2:A18 A20:A28 A50:A67">
+  <conditionalFormatting sqref="A89:A91 A78:A86 A31:A35 A38:A49 A71:A76 A2:A18 A20:A28 A52:A69">
     <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
+  <conditionalFormatting sqref="B70">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
+  <conditionalFormatting sqref="B50">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
+  <conditionalFormatting sqref="A50:A51">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED77A5F-45B6-4B6F-A210-5F5BA5211B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A971ADA2-AC44-45BD-AF23-3F79329D6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
   <si>
     <t>Stem</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>Seafo</t>
+  </si>
+  <si>
+    <t>Rehab</t>
   </si>
 </sst>
 </file>
@@ -643,11 +646,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C91" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C91" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C91">
-    <sortCondition ref="C2:C91"/>
-    <sortCondition ref="A2:A91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C92" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C92" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C92">
+    <sortCondition ref="C2:C92"/>
+    <sortCondition ref="A2:A92"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
@@ -957,11 +960,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1712,20 +1713,20 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
+      <c r="A63" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1736,56 +1737,56 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B66" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B67" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1796,44 +1797,44 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B71" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B72" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B73" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1844,56 +1845,56 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="A74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1905,7 +1906,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1917,7 +1918,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1929,23 +1930,23 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
@@ -1953,11 +1954,11 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>14</v>
@@ -1965,7 +1966,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1977,43 +1978,43 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B87" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B87" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2024,20 +2025,20 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="A89" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B90" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2049,13 +2050,25 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B92" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2066,15 +2079,15 @@
   <conditionalFormatting sqref="A29:A30">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B91 B51:B69 B2:B49">
+  <conditionalFormatting sqref="B72:B92 B2:B49 B51:B70">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89:A91 A78:A86 A31:A35 A38:A49 A71:A76 A2:A18 A20:A28 A52:A69">
+  <conditionalFormatting sqref="A90:A92 A79:A87 A31:A35 A38:A49 A72:A77 A2:A18 A20:A28 A52:A70">
     <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B71">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A971ADA2-AC44-45BD-AF23-3F79329D6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDBCD41-F03A-4BA4-B9E2-1769F6991535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="113">
   <si>
     <t>Stem</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Rehab</t>
+  </si>
+  <si>
+    <t>Fedex</t>
   </si>
 </sst>
 </file>
@@ -646,11 +649,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C92" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C92" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C92">
-    <sortCondition ref="C2:C92"/>
-    <sortCondition ref="A2:A92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C93" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C93" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C93">
+    <sortCondition ref="C2:C93"/>
+    <sortCondition ref="A2:A93"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
@@ -960,9 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1882,7 +1887,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1893,20 +1898,20 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="A78" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1918,7 +1923,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1930,7 +1935,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1942,23 +1947,23 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>14</v>
@@ -1966,11 +1971,11 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>14</v>
@@ -1978,7 +1983,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1990,43 +1995,43 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B88" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2037,20 +2042,20 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="A90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2062,13 +2067,25 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B93" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2079,12 +2096,12 @@
   <conditionalFormatting sqref="A29:A30">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B92 B2:B49 B51:B70">
+  <conditionalFormatting sqref="B72:B93 B2:B49 B51:B70">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90:A92 A79:A87 A31:A35 A38:A49 A72:A77 A2:A18 A20:A28 A52:A70">
+  <conditionalFormatting sqref="A91:A93 A80:A88 A31:A35 A38:A49 A72:A78 A2:A18 A20:A28 A52:A70">
     <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDBCD41-F03A-4BA4-B9E2-1769F6991535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D7BAD-0056-4874-A940-7AAF7042C4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
   <si>
     <t>Stem</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>Fedex</t>
+  </si>
+  <si>
+    <t>Corre</t>
+  </si>
+  <si>
+    <t>Meat</t>
   </si>
 </sst>
 </file>
@@ -649,11 +655,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C93" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C93" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C93">
-    <sortCondition ref="C2:C93"/>
-    <sortCondition ref="A2:A93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C95" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C95" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C95">
+    <sortCondition ref="C2:C95"/>
+    <sortCondition ref="A2:A95"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
@@ -963,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1442,20 +1448,20 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1467,7 +1473,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1478,44 +1484,44 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1527,11 +1533,11 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>33</v>
@@ -1539,11 +1545,11 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>33</v>
@@ -1551,19 +1557,19 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B50" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1574,44 +1580,44 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B53" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1623,7 +1629,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1635,7 +1641,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1647,7 +1653,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1659,7 +1665,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1671,7 +1677,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1683,7 +1689,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1695,7 +1701,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1707,7 +1713,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1718,56 +1724,56 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="A63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1779,55 +1785,55 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B68" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1838,104 +1844,104 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B75" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B76" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B78" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B79" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1947,7 +1953,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1959,31 +1965,31 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1995,11 +2001,11 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>14</v>
@@ -2007,85 +2013,109 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B90" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="3" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B89" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B91" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B92" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2096,25 +2126,25 @@
   <conditionalFormatting sqref="A29:A30">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B93 B2:B49 B51:B70">
+  <conditionalFormatting sqref="B74:B95 B2:B51 B53:B72">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A93 A80:A88 A31:A35 A38:A49 A72:A78 A2:A18 A20:A28 A52:A70">
+  <conditionalFormatting sqref="A93:A95 A82:A90 A31:A35 A38:A51 A74:A80 A2:A18 A20:A28 A54:A72">
     <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B73">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
+  <conditionalFormatting sqref="B52">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A51">
+  <conditionalFormatting sqref="A52:A53">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D7BAD-0056-4874-A940-7AAF7042C4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B16E9CE-A3B9-4516-A1C1-480F12CDE742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
   <si>
     <t>Stem</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Meat</t>
+  </si>
+  <si>
+    <t>Ingha</t>
   </si>
 </sst>
 </file>
@@ -655,11 +658,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C95" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C95" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C95">
-    <sortCondition ref="C2:C95"/>
-    <sortCondition ref="A2:A95"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C96" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C96" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
+    <sortCondition ref="C2:C96"/>
+    <sortCondition ref="A2:A96"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
@@ -969,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1424,56 +1427,56 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B40" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="A41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1485,7 +1488,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1496,44 +1499,44 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1545,11 +1548,11 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>33</v>
@@ -1557,55 +1560,55 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B51" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B53" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1616,20 +1619,20 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>17</v>
+      <c r="A54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1641,7 +1644,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1653,7 +1656,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1665,7 +1668,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1677,7 +1680,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1689,7 +1692,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1701,7 +1704,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1713,7 +1716,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1725,7 +1728,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1737,7 +1740,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1748,32 +1751,32 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B66" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1784,56 +1787,56 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B69" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B70" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1844,44 +1847,44 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B75" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B76" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1892,44 +1895,44 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="A77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B80" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1940,20 +1943,20 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="A81" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1965,7 +1968,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1989,23 +1992,23 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>14</v>
@@ -2013,11 +2016,11 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>14</v>
@@ -2025,7 +2028,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2037,43 +2040,43 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B90" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B91" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2084,20 +2087,20 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B93" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="A93" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B94" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2109,42 +2112,54 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B96" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A36:A37">
+  <conditionalFormatting sqref="A36:A38">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B95 B2:B51 B53:B72">
+  <conditionalFormatting sqref="B75:B96 B2:B52 B54:B73">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A95 A82:A90 A31:A35 A38:A51 A74:A80 A2:A18 A20:A28 A54:A72">
+  <conditionalFormatting sqref="A94:A96 A83:A91 A31:A35 A39:A52 A75:A81 A2:A18 A20:A28 A55:A73">
     <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+  <conditionalFormatting sqref="B74">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
+  <conditionalFormatting sqref="B53">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A53">
+  <conditionalFormatting sqref="A53:A54">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B16E9CE-A3B9-4516-A1C1-480F12CDE742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4E9D0A-475E-42DE-9BA5-9AEE016E5DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="119">
   <si>
     <t>Stem</t>
   </si>
@@ -382,6 +382,15 @@
   </si>
   <si>
     <t>Ingha</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>Housi</t>
+  </si>
+  <si>
+    <t>CFMEU</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -658,18 +687,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C96" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C96" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
-    <sortCondition ref="C2:C96"/>
-    <sortCondition ref="A2:A96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C99" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:C99" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C99">
+    <sortCondition ref="C2:C99"/>
+    <sortCondition ref="A2:A99"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="10">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -972,11 +1001,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1427,56 +1454,56 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="A39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B40" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1488,7 +1515,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1499,44 +1526,44 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="A44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1548,11 +1575,11 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>33</v>
@@ -1560,55 +1587,55 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>33</v>
+      <c r="A50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="A52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B53" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1619,20 +1646,20 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>94</v>
+      <c r="A54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1644,7 +1671,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1656,7 +1683,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1668,7 +1695,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1680,7 +1707,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1692,7 +1719,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1704,7 +1731,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1716,7 +1743,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1728,7 +1755,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1740,7 +1767,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1751,32 +1778,32 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="A65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>17</v>
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1787,38 +1814,38 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="A68" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="A69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="A70" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1859,128 +1886,128 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B76" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B77" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B78" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B79" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B81" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B82" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1992,7 +2019,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2004,31 +2031,31 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2040,126 +2067,170 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>89</v>
+      <c r="A90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>64</v>
+      <c r="A92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>64</v>
+      <c r="A93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B94" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B97" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B98" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A36:A38">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B96 B2:B52 B54:B73">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="B77:B99 B2:B51 B53:B69 B71:B75">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94:A96 A83:A91 A31:A35 A39:A52 A75:A81 A2:A18 A20:A28 A55:A73">
-    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
+  <conditionalFormatting sqref="A97:A99 A85:A94 A31:A35 A38:A51 A77:A83 A2:A18 A20:A28 A54:A69 A75 A71:A73">
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="B76">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
+  <conditionalFormatting sqref="B52">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:A53">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74 A36:A37">
+    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A54">
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4E9D0A-475E-42DE-9BA5-9AEE016E5DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2083F595-8C8D-4264-959B-06E1CF2F19E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-25860" yWindow="2940" windowWidth="21600" windowHeight="11422" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
   <si>
     <t>Stem</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>CFMEU</t>
+  </si>
+  <si>
+    <t>Dayca</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -687,18 +710,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C99" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:C99" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C99">
-    <sortCondition ref="C2:C99"/>
-    <sortCondition ref="A2:A99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:C100" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C100">
+    <sortCondition ref="C2:C100"/>
+    <sortCondition ref="A2:A100"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="12">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1001,9 +1024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1082,24 +1107,24 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
@@ -1107,11 +1132,11 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
@@ -1119,7 +1144,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1131,7 +1156,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1143,19 +1168,19 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1167,43 +1192,43 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1215,7 +1240,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1226,56 +1251,56 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1287,19 +1312,19 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1311,7 +1336,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1323,7 +1348,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1335,23 +1360,23 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -1359,11 +1384,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -1371,11 +1396,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>66</v>
@@ -1383,11 +1408,11 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>66</v>
@@ -1395,7 +1420,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1407,11 +1432,11 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>66</v>
@@ -1419,7 +1444,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1431,11 +1456,11 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>66</v>
@@ -1443,7 +1468,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1455,55 +1480,55 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B40" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="A41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1515,7 +1540,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1526,44 +1551,44 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1575,11 +1600,11 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>33</v>
@@ -1587,55 +1612,55 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B51" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B53" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1646,20 +1671,20 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>17</v>
+      <c r="A54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1671,7 +1696,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1683,7 +1708,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1695,7 +1720,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1707,7 +1732,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1719,7 +1744,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1731,7 +1756,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1743,7 +1768,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1755,7 +1780,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1767,7 +1792,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1778,32 +1803,32 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B66" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1814,68 +1839,68 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B69" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1886,68 +1911,68 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>66</v>
+      <c r="A74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B76" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B78" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1958,44 +1983,44 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="A80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="A82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2006,20 +2031,20 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="A84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2031,7 +2056,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2043,7 +2068,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2055,55 +2080,55 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B90" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B91" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B92" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2115,43 +2140,43 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B93" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B94" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2162,20 +2187,20 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B97" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="A97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B98" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2187,50 +2212,70 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B100" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  <conditionalFormatting sqref="A30:A31">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B99 B2:B51 B53:B69 B71:B75">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="B78:B100 B2:B5 B54:B70 B72:B76 B7:B52">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97:A99 A85:A94 A31:A35 A38:A51 A77:A83 A2:A18 A20:A28 A54:A69 A75 A71:A73">
-    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
+  <conditionalFormatting sqref="A98:A100 A86:A95 A32:A36 A39:A52 A78:A84 A2:A5 A21:A29 A55:A70 A76 A72:A74 A7:A19">
+    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="B77">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="B53">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A53">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="A53:A54">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74 A36:A37">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
+  <conditionalFormatting sqref="A75 A37:A38">
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B71">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2083F595-8C8D-4264-959B-06E1CF2F19E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891B6CA6-5D8A-4B48-AC37-5B8A9813EB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25860" yWindow="2940" windowWidth="21600" windowHeight="11422" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="123">
   <si>
     <t>Stem</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>Dayca</t>
+  </si>
+  <si>
+    <t>Recyc</t>
+  </si>
+  <si>
+    <t>Finis</t>
+  </si>
+  <si>
+    <t>Preci</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -710,18 +759,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:C100" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C100">
-    <sortCondition ref="C2:C100"/>
-    <sortCondition ref="A2:A100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C104" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C104" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C104">
+    <sortCondition ref="C2:C104"/>
+    <sortCondition ref="A2:A104"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="16">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1024,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1911,44 +1960,44 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B75" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B75" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
-        <v>102</v>
+      <c r="A77" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1959,68 +2008,68 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="A78" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
-        <v>103</v>
+      <c r="A79" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B80" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="A82" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2031,20 +2080,20 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="A84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2055,32 +2104,32 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="A86" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B87" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="A87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2092,43 +2141,43 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B90" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>14</v>
+      <c r="A91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B92" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2140,142 +2189,206 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B93" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>89</v>
+      <c r="A94" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B95" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>64</v>
+      <c r="A96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>64</v>
+      <c r="A97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B98" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B102" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B103" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B100" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B104" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B100 B2:B5 B54:B70 B72:B76 B7:B52">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="B81:B104 B2:B5 B54:B70 B72:B75 B7:B52 B77:B78">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98:A100 A86:A95 A32:A36 A39:A52 A78:A84 A2:A5 A21:A29 A55:A70 A76 A72:A74 A7:A19">
-    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
+  <conditionalFormatting sqref="A102:A104 A89:A98 A32:A36 A39:A52 A81:A87 A2:A5 A21:A29 A55:A70 A78 A72:A75 A7:A19">
+    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
+  <conditionalFormatting sqref="B79">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:A54">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77 A37:A38">
+    <cfRule type="duplicateValues" dxfId="8" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A54">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75 A37:A38">
-    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B76">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B80">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A80">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891B6CA6-5D8A-4B48-AC37-5B8A9813EB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13A4FD7-BF3E-4450-A38C-CFBCBDB994B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="15390" windowHeight="9532" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="124">
   <si>
     <t>Stem</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>Preci</t>
+  </si>
+  <si>
+    <t>Bread</t>
   </si>
 </sst>
 </file>
@@ -759,11 +762,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C104" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C104" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C104">
-    <sortCondition ref="C2:C104"/>
-    <sortCondition ref="A2:A104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C105" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C105" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C105">
+    <sortCondition ref="C2:C105"/>
+    <sortCondition ref="A2:A105"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1073,11 +1076,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1456,24 +1457,24 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>66</v>
@@ -1481,7 +1482,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1493,11 +1494,11 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>66</v>
@@ -1505,7 +1506,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1517,11 +1518,11 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>66</v>
@@ -1529,7 +1530,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1541,55 +1542,55 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B41" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1601,7 +1602,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1612,44 +1613,44 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1661,11 +1662,11 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>33</v>
@@ -1673,55 +1674,55 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B52" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B54" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1732,20 +1733,20 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>17</v>
+      <c r="A55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1757,7 +1758,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1769,7 +1770,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1781,7 +1782,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1793,7 +1794,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1805,7 +1806,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1817,7 +1818,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1829,7 +1830,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1841,7 +1842,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1853,7 +1854,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1864,32 +1865,32 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B67" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1900,104 +1901,104 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B70" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B73" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B75" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2009,31 +2010,31 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B78" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
-        <v>102</v>
+      <c r="A79" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>120</v>
+      <c r="A80" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B80" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2044,32 +2045,32 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2080,44 +2081,44 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B84" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="A84" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="A86" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B87" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2128,20 +2129,20 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="A88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2153,7 +2154,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B90" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2165,7 +2166,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2177,55 +2178,55 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B92" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B93" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B94" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B96" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2237,43 +2238,43 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B97" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2285,7 +2286,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B101" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2296,20 +2297,20 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="A102" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B103" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2321,50 +2322,62 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B104" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B105" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A30:A31">
+  <conditionalFormatting sqref="A30:A32">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81:B104 B2:B5 B54:B70 B72:B75 B7:B52 B77:B78">
+  <conditionalFormatting sqref="B82:B105 B2:B5 B55:B71 B73:B76 B7:B53 B78:B79">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A104 A89:A98 A32:A36 A39:A52 A81:A87 A2:A5 A21:A29 A55:A70 A78 A72:A75 A7:A19">
+  <conditionalFormatting sqref="A103:A105 A90:A99 A33:A37 A40:A53 A82:A88 A2:A5 A21:A29 A56:A71 A79 A73:A76 A7:A19">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
+  <conditionalFormatting sqref="B80">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
+  <conditionalFormatting sqref="B54">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A54">
+  <conditionalFormatting sqref="A54:A55">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77 A37:A38">
+  <conditionalFormatting sqref="A78 A38:A39">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B72">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A72">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
@@ -2375,20 +2388,20 @@
   <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
+  <conditionalFormatting sqref="B77">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A77">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
+  <conditionalFormatting sqref="B81">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="A81">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13A4FD7-BF3E-4450-A38C-CFBCBDB994B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6AE70F-5EF8-4B78-9857-B199AFF1B8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="15390" windowHeight="9532" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="127">
   <si>
     <t>Stem</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Footb</t>
   </si>
   <si>
-    <t>Sports</t>
-  </si>
-  <si>
     <t>Logistics</t>
   </si>
   <si>
@@ -406,6 +403,18 @@
   </si>
   <si>
     <t>Bread</t>
+  </si>
+  <si>
+    <t>Inn</t>
+  </si>
+  <si>
+    <t>Fitne</t>
+  </si>
+  <si>
+    <t>Sports &amp; Fitness</t>
+  </si>
+  <si>
+    <t>BlueC</t>
   </si>
 </sst>
 </file>
@@ -762,11 +771,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C105" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C105" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C105">
-    <sortCondition ref="C2:C105"/>
-    <sortCondition ref="A2:A105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C108" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C108" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C108">
+    <sortCondition ref="C3:C108"/>
+    <sortCondition ref="A3:A108"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1076,9 +1085,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1090,27 +1101,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1122,19 +1133,19 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1145,20 +1156,20 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1169,24 +1180,24 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
@@ -1194,11 +1205,11 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -1206,7 +1217,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1218,7 +1229,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1230,19 +1241,19 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1254,43 +1265,43 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1302,7 +1313,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1313,80 +1324,80 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
+      <c r="A23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1398,7 +1409,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1410,7 +1421,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1422,247 +1433,247 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>66</v>
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>66</v>
+      <c r="A33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B35" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>66</v>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B42" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>66</v>
+      <c r="C43" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>66</v>
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>66</v>
+      <c r="A47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1674,11 +1685,11 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>33</v>
@@ -1686,79 +1697,79 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>94</v>
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>94</v>
+      <c r="A53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B54" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B55" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>17</v>
+      <c r="A56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1770,7 +1781,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1782,7 +1793,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1794,7 +1805,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1806,7 +1817,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1818,7 +1829,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1830,7 +1841,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1842,7 +1853,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1854,7 +1865,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1877,32 +1888,32 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B67" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="A67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>3</v>
+      <c r="A68" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1913,68 +1924,68 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B70" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="A70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="A71" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="A72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B73" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>29</v>
+      <c r="A74" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B75" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1986,7 +1997,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1998,7 +2009,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2009,32 +2020,32 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="A78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="4" t="s">
-        <v>102</v>
+      <c r="A80" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B80" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2046,362 +2057,398 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B81" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="A82" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>36</v>
+      <c r="A84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B85" s="1">
+      <c r="A85" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B87" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>36</v>
+      <c r="C87" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>36</v>
+      <c r="A88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>36</v>
+      <c r="A89" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>36</v>
+      <c r="A90" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B92" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B93" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B94" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B95" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="A95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B96" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="A97" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B98" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B101" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B102" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B103" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B104" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>64</v>
+      <c r="A104" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B105" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>35</v>
+      <c r="B108" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A30:A32">
+  <conditionalFormatting sqref="A31:A33">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B105 B2:B5 B55:B71 B73:B76 B7:B53 B78:B79">
+  <conditionalFormatting sqref="B84:B108 B3:B6 B56:B72 B75:B78 B8:B54 B80:B81">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:A105 A90:A99 A33:A37 A40:A53 A82:A88 A2:A5 A21:A29 A56:A71 A79 A73:A76 A7:A19">
+  <conditionalFormatting sqref="A105:A108 A92:A101 A34:A38 A41:A54 A84:A90 A3:A6 A22:A30 A57:A72 A81 A75:A78 A8:A20">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
+  <conditionalFormatting sqref="B82">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="B55">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A55">
+  <conditionalFormatting sqref="A55:A56">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78 A38:A39">
+  <conditionalFormatting sqref="A80 A39:A40">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+  <conditionalFormatting sqref="B73:B74">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A73:A74">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B7">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
+  <conditionalFormatting sqref="B79">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
+  <conditionalFormatting sqref="A79">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
+  <conditionalFormatting sqref="B83">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
+  <conditionalFormatting sqref="A83">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6AE70F-5EF8-4B78-9857-B199AFF1B8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08146CBC-6EFF-4905-A08F-EEC85507DEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="128">
   <si>
     <t>Stem</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>BlueC</t>
+  </si>
+  <si>
+    <t>Aged</t>
   </si>
 </sst>
 </file>
@@ -771,11 +774,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C108" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C108" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C108">
-    <sortCondition ref="C3:C108"/>
-    <sortCondition ref="A3:A108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C109" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C109" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C109">
+    <sortCondition ref="C4:C109"/>
+    <sortCondition ref="A4:A109"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1085,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1109,31 +1112,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1145,19 +1148,19 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1168,20 +1171,20 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1192,24 +1195,24 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -1217,11 +1220,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1253,19 +1256,19 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1277,43 +1280,43 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1325,7 +1328,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1336,56 +1339,56 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1397,19 +1400,19 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1433,7 +1436,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1445,23 +1448,23 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>65</v>
@@ -1469,47 +1472,47 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>65</v>
@@ -1517,7 +1520,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1529,11 +1532,11 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>65</v>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1553,11 +1556,11 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>65</v>
@@ -1565,7 +1568,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1577,55 +1580,55 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B43" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="A44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1637,7 +1640,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1648,44 +1651,44 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1697,11 +1700,11 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>33</v>
@@ -1709,55 +1712,55 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B54" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B56" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1768,20 +1771,20 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>17</v>
+      <c r="A57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1805,7 +1808,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1817,7 +1820,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1841,7 +1844,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1853,7 +1856,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1889,7 +1892,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1900,32 +1903,32 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B69" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1936,48 +1939,48 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B72" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B74" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>3</v>
@@ -1985,67 +1988,67 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B76" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B76" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B77" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B78" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B79" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B80" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2057,31 +2060,31 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B81" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="4" t="s">
-        <v>101</v>
+      <c r="A82" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B82" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
-        <v>119</v>
+      <c r="A83" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2092,32 +2095,32 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B85" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B86" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2128,44 +2131,44 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="A87" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B89" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="A89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B90" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2176,20 +2179,20 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B91" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="A91" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B92" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2201,7 +2204,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B93" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2213,7 +2216,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B94" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2225,55 +2228,55 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B95" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B96" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B98" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B99" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2285,43 +2288,43 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B100" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B101" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B102" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B103" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2333,7 +2336,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B104" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2344,20 +2347,20 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B105" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="A105" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B106" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2368,22 +2371,22 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B107" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B108" s="1">
+      <c r="B108" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2391,64 +2394,76 @@
         <v>125</v>
       </c>
     </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A31:A33">
+  <conditionalFormatting sqref="A32:A34">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84:B108 B3:B6 B56:B72 B75:B78 B8:B54 B80:B81">
+  <conditionalFormatting sqref="B85:B109 B4:B7 B57:B73 B76:B79 B9:B55 B81:B82">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:A108 A92:A101 A34:A38 A41:A54 A84:A90 A3:A6 A22:A30 A57:A72 A81 A75:A78 A8:A20">
+  <conditionalFormatting sqref="A106:A109 A93:A102 A35:A39 A42:A55 A85:A91 A4:A7 A23:A31 A58:A73 A82 A76:A79 A9:A21">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B83">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
+  <conditionalFormatting sqref="B56">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A56">
+  <conditionalFormatting sqref="A56:A57">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80 A39:A40">
+  <conditionalFormatting sqref="A81 A40:A41">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:B74">
+  <conditionalFormatting sqref="B74:B75">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A74">
+  <conditionalFormatting sqref="A74:A75">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B8">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
+  <conditionalFormatting sqref="B80">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
+  <conditionalFormatting sqref="A80">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B84">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
+  <conditionalFormatting sqref="A84">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08146CBC-6EFF-4905-A08F-EEC85507DEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E0F7F-9DCC-4555-A567-F4D83D5333FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
   <si>
     <t>Stem</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>Aged</t>
+  </si>
+  <si>
+    <t>Trans</t>
   </si>
 </sst>
 </file>
@@ -774,11 +777,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C109" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C109" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C109">
-    <sortCondition ref="C4:C109"/>
-    <sortCondition ref="A4:A109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C110" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C110" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C110">
+    <sortCondition ref="C4:C110"/>
+    <sortCondition ref="A4:A110"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1088,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2203,20 +2206,20 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="A93" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B94" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2228,7 +2231,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B95" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2240,55 +2243,55 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B96" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B97" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B100" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2300,43 +2303,43 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B101" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B102" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B103" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B104" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2348,7 +2351,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B105" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2359,20 +2362,20 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="A106" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B107" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2383,26 +2386,38 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B108" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="B109" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B109" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B110" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2410,12 +2425,12 @@
   <conditionalFormatting sqref="A32:A34">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85:B109 B4:B7 B57:B73 B76:B79 B9:B55 B81:B82">
+  <conditionalFormatting sqref="B4:B7 B57:B73 B76:B79 B9:B55 B81:B82 B85:B110">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106:A109 A93:A102 A35:A39 A42:A55 A85:A91 A4:A7 A23:A31 A58:A73 A82 A76:A79 A9:A21">
+  <conditionalFormatting sqref="A107:A110 A94:A103 A35:A39 A42:A55 A85:A91 A4:A7 A23:A31 A58:A73 A82 A76:A79 A9:A21">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E0F7F-9DCC-4555-A567-F4D83D5333FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F641E61-B10D-4FB1-BBD8-A3EEBD8A0599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="130">
   <si>
     <t>Stem</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Trans</t>
+  </si>
+  <si>
+    <t>Beddi</t>
   </si>
 </sst>
 </file>
@@ -777,11 +780,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C110" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C110" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C110">
-    <sortCondition ref="C4:C110"/>
-    <sortCondition ref="A4:A110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C111" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C111">
+    <sortCondition ref="C4:C111"/>
+    <sortCondition ref="A4:A111"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1091,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B76" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2014,56 +2017,56 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B78" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B79" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B80" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B81" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2075,31 +2078,31 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B82" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
-        <v>101</v>
+      <c r="A83" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>119</v>
+      <c r="A84" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B84" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2110,32 +2113,32 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B86" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B86" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B87" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2146,44 +2149,44 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="A88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B90" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="A90" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B91" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2194,44 +2197,44 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B93" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B95" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B96" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2255,55 +2258,55 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B97" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B98" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B99" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B100" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B101" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2315,43 +2318,43 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B102" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B104" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B105" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2363,7 +2366,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B106" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2374,20 +2377,20 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="A107" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B108" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2398,26 +2401,38 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B110" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B110" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="B111" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2425,15 +2440,15 @@
   <conditionalFormatting sqref="A32:A34">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7 B57:B73 B76:B79 B9:B55 B81:B82 B85:B110">
+  <conditionalFormatting sqref="B4:B7 B57:B73 B9:B55 B82:B83 B86:B111 B76:B80">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:A110 A94:A103 A35:A39 A42:A55 A85:A91 A4:A7 A23:A31 A58:A73 A82 A76:A79 A9:A21">
+  <conditionalFormatting sqref="A108:A111 A95:A104 A35:A39 A42:A55 A86:A92 A4:A7 A23:A31 A58:A73 A83 A77:A80 A9:A21">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B84">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2446,7 +2461,7 @@
   <conditionalFormatting sqref="A56:A57">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81 A40:A41">
+  <conditionalFormatting sqref="A82 A40:A41">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75">
@@ -2454,7 +2469,7 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A75">
+  <conditionalFormatting sqref="A74:A76">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
@@ -2465,20 +2480,20 @@
   <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
+  <conditionalFormatting sqref="B81">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="A81">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
+  <conditionalFormatting sqref="B85">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A85">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F641E61-B10D-4FB1-BBD8-A3EEBD8A0599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5849A180-42AD-4680-A6C7-07E458D7DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
   <si>
     <t>Stem</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>Beddi</t>
+  </si>
+  <si>
+    <t>Resid</t>
   </si>
 </sst>
 </file>
@@ -780,11 +783,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C111" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C111">
-    <sortCondition ref="C4:C111"/>
-    <sortCondition ref="A4:A111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C112" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C112" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C112">
+    <sortCondition ref="C4:C112"/>
+    <sortCondition ref="A4:A112"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1094,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2006,19 +2009,19 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B76" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2029,56 +2032,56 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B79" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B79" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B80" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B82" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2090,31 +2093,31 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="4" t="s">
-        <v>101</v>
+      <c r="A84" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B84" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="3" t="s">
-        <v>119</v>
+      <c r="A85" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B85" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2125,32 +2128,32 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B87" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B88" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2161,44 +2164,44 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="A89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B90" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B91" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="A91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B92" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2209,44 +2212,44 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B94" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B96" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2258,7 +2261,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B97" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2270,55 +2273,55 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B98" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B99" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B100" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B101" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B101" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B102" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2330,43 +2333,43 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B103" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B104" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B105" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B105" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B106" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2378,7 +2381,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B107" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2389,20 +2392,20 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="A108" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B109" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2413,26 +2416,38 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B110" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="B111" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B111" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B112" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2440,15 +2455,15 @@
   <conditionalFormatting sqref="A32:A34">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7 B57:B73 B9:B55 B82:B83 B86:B111 B76:B80">
+  <conditionalFormatting sqref="B4:B7 B57:B73 B9:B55 B83:B84 B87:B112 B76:B81">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108:A111 A95:A104 A35:A39 A42:A55 A86:A92 A4:A7 A23:A31 A58:A73 A83 A77:A80 A9:A21">
+  <conditionalFormatting sqref="A109:A112 A96:A105 A35:A39 A42:A55 A87:A93 A4:A7 A23:A31 A58:A73 A84 A78:A81 A9:A21">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
+  <conditionalFormatting sqref="B85">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2461,7 +2476,7 @@
   <conditionalFormatting sqref="A56:A57">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82 A40:A41">
+  <conditionalFormatting sqref="A83 A40:A41">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75">
@@ -2469,32 +2484,32 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A76">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B86">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:A77">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5849A180-42AD-4680-A6C7-07E458D7DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E46C286-2D9E-4C41-800E-7BE29D78D642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
   <si>
     <t>Stem</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>Resid</t>
+  </si>
+  <si>
+    <t>Custo</t>
   </si>
 </sst>
 </file>
@@ -783,11 +786,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C112" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C112" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C112">
-    <sortCondition ref="C4:C112"/>
-    <sortCondition ref="A4:A112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C113" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C113" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C113">
+    <sortCondition ref="C4:C113"/>
+    <sortCondition ref="A4:A113"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1097,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1756,32 +1759,32 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B57" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1792,20 +1795,20 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>17</v>
+      <c r="A58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1817,7 +1820,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1841,7 +1844,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1853,7 +1856,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1889,7 +1892,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1901,7 +1904,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1924,32 +1927,32 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B70" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1960,48 +1963,48 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B73" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B75" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>3</v>
@@ -2009,11 +2012,11 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B76" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>3</v>
@@ -2021,19 +2024,19 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B78" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2044,56 +2047,56 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B81" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2105,31 +2108,31 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B84" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="4" t="s">
-        <v>101</v>
+      <c r="A85" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B85" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>119</v>
+      <c r="A86" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B86" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2140,32 +2143,32 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B88" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B88" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B89" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2176,44 +2179,44 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="A90" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B92" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="A92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B93" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2224,44 +2227,44 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B96" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B97" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B98" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2285,55 +2288,55 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B99" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B100" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B101" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B102" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B102" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B103" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2345,43 +2348,43 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B104" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B105" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B105" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B106" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B107" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B108" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2404,20 +2407,20 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="A109" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B110" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2428,26 +2431,38 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B111" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B112" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="B113" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2455,31 +2470,31 @@
   <conditionalFormatting sqref="A32:A34">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7 B57:B73 B9:B55 B83:B84 B87:B112 B76:B81">
+  <conditionalFormatting sqref="B4:B7 B58:B74 B84:B85 B88:B113 B77:B82 B9:B56">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109:A112 A96:A105 A35:A39 A42:A55 A87:A93 A4:A7 A23:A31 A58:A73 A84 A78:A81 A9:A21">
+  <conditionalFormatting sqref="A110:A113 A97:A106 A35:A39 A42:A56 A88:A94 A4:A7 A23:A31 A59:A74 A85 A79:A82 A9:A21">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
+  <conditionalFormatting sqref="B86">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
+  <conditionalFormatting sqref="B57">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A57">
+  <conditionalFormatting sqref="A57:A58">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83 A40:A41">
+  <conditionalFormatting sqref="A84 A40:A41">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B75">
+  <conditionalFormatting sqref="B75:B76">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2492,23 +2507,23 @@
   <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B83">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
+  <conditionalFormatting sqref="A83">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
+  <conditionalFormatting sqref="B87">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
+  <conditionalFormatting sqref="A87">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A77">
+  <conditionalFormatting sqref="A75:A78">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E46C286-2D9E-4C41-800E-7BE29D78D642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134715D-9AE4-48A4-9515-19F2A0678233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="133">
   <si>
     <t>Stem</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>Custo</t>
+  </si>
+  <si>
+    <t>JBS</t>
   </si>
 </sst>
 </file>
@@ -786,11 +789,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C113" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C113" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C113">
-    <sortCondition ref="C4:C113"/>
-    <sortCondition ref="A4:A113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C114" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C114" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C114">
+    <sortCondition ref="C4:C114"/>
+    <sortCondition ref="A4:A114"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1100,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1603,56 +1606,56 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B44" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="A45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1664,7 +1667,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1675,44 +1678,44 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1724,11 +1727,11 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>33</v>
@@ -1736,31 +1739,31 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>93</v>
+      <c r="A54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B55" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1771,32 +1774,32 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B58" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1807,20 +1810,20 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>17</v>
+      <c r="A59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1856,7 +1859,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1892,7 +1895,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1916,7 +1919,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1928,7 +1931,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1939,32 +1942,32 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B71" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1975,48 +1978,48 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B76" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>3</v>
@@ -2024,11 +2027,11 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>3</v>
@@ -2036,19 +2039,19 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B78" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2059,56 +2062,56 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B81" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B82" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B83" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="B83" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B84" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2120,31 +2123,31 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="4" t="s">
-        <v>101</v>
+      <c r="A86" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B86" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
-        <v>119</v>
+      <c r="A87" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B87" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2155,32 +2158,32 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B89" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B89" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B90" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2191,44 +2194,44 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="A91" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B92" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="A93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B94" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2239,44 +2242,44 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B96" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B96" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B97" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B97" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B98" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2288,7 +2291,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B99" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2300,55 +2303,55 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B100" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B101" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B102" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B103" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B103" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B104" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2360,43 +2363,43 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B105" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B106" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B107" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B108" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2408,7 +2411,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B109" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2419,20 +2422,20 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="A110" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B110" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B111" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2443,26 +2446,38 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B112" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="B113" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B113" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B114" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2470,31 +2485,31 @@
   <conditionalFormatting sqref="A32:A34">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7 B58:B74 B84:B85 B88:B113 B77:B82 B9:B56">
+  <conditionalFormatting sqref="B4:B7 B59:B75 B85:B86 B89:B114 B78:B83 B9:B57">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110:A113 A97:A106 A35:A39 A42:A56 A88:A94 A4:A7 A23:A31 A59:A74 A85 A79:A82 A9:A21">
+  <conditionalFormatting sqref="A111:A114 A98:A107 A35:A39 A43:A57 A89:A95 A4:A7 A23:A31 A60:A75 A86 A80:A83 A9:A21">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
+  <conditionalFormatting sqref="B87">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
+  <conditionalFormatting sqref="B58">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A58">
+  <conditionalFormatting sqref="A58:A59">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84 A40:A41">
+  <conditionalFormatting sqref="A85 A40:A42">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B76">
+  <conditionalFormatting sqref="B76:B77">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2507,23 +2522,23 @@
   <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B84">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
+  <conditionalFormatting sqref="A84">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
+  <conditionalFormatting sqref="B88">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+  <conditionalFormatting sqref="A88">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:A78">
+  <conditionalFormatting sqref="A76:A79">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134715D-9AE4-48A4-9515-19F2A0678233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0920CF-C02E-42C7-A1ED-2C95A6F71D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
   <si>
     <t>Stem</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>JBS</t>
+  </si>
+  <si>
+    <t>Gym</t>
   </si>
 </sst>
 </file>
@@ -491,6 +494,140 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -641,140 +778,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -789,18 +792,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C114" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C114" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C115" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C115" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C114">
     <sortCondition ref="C4:C114"/>
     <sortCondition ref="A4:A114"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="1">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1103,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2481,65 +2484,77 @@
         <v>125</v>
       </c>
     </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B7 B59:B75 B85:B86 B89:B114 B78:B83 B9:B57">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:A114 A98:A107 A35:A39 A43:A57 A89:A95 A4:A7 A23:A31 A60:A75 A86 A80:A83 A9:A21">
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A59">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85 A40:A42">
-    <cfRule type="duplicateValues" dxfId="8" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A79">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0920CF-C02E-42C7-A1ED-2C95A6F71D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741E0CF2-0496-47D3-A594-5CD2CB00F23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
   <si>
     <t>Stem</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>Gym</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Fams</t>
   </si>
 </sst>
 </file>
@@ -494,140 +500,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -778,6 +650,140 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -792,18 +798,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C115" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C115" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C114">
-    <sortCondition ref="C4:C114"/>
-    <sortCondition ref="A4:A114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C117" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C117" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C116">
+    <sortCondition ref="C4:C116"/>
+    <sortCondition ref="A4:A116"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="16">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1106,11 +1112,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1561,36 +1565,36 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="A38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="A39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>65</v>
@@ -1598,35 +1602,35 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>65</v>
@@ -1634,55 +1638,55 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B44" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B47" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1693,20 +1697,20 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1717,36 +1721,36 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>33</v>
+      <c r="A51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>33</v>
@@ -1754,7 +1758,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1765,44 +1769,44 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B58" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1813,44 +1817,44 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B61" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1862,7 +1866,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1874,7 +1878,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1886,7 +1890,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1898,7 +1902,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1910,7 +1914,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1922,7 +1926,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1934,7 +1938,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1946,7 +1950,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1957,56 +1961,56 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="A71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2018,7 +2022,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B76" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2029,20 +2033,20 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="A77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B78" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2054,43 +2058,43 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B80" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="A81" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B82" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2102,7 +2106,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2114,7 +2118,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B84" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2125,32 +2129,32 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B85" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="A85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B86" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="4" t="s">
-        <v>101</v>
+      <c r="A87" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B87" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2162,115 +2166,115 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B88" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="A89" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B92" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B93" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B94" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B93" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B96" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B97" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2282,7 +2286,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B98" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2293,20 +2297,20 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="A99" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B100" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2318,115 +2322,115 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B101" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B102" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B103" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="A103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B104" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="A105" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B106" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B107" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="B109" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B109" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2437,124 +2441,148 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B111" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B113" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B112" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B113" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B114" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>125</v>
+      <c r="C114" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B115" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A115" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7 B59:B75 B85:B86 B89:B114 B78:B83 B9:B57">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="B4:B7 B61:B77 B87:B88 B91:B116 B80:B85 B9:B59">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111:A114 A98:A107 A35:A39 A43:A57 A89:A95 A4:A7 A23:A31 A60:A75 A86 A80:A83 A9:A21">
-    <cfRule type="duplicateValues" dxfId="17" priority="23"/>
+  <conditionalFormatting sqref="A113:A116 A100:A109 A35:A41 A45:A59 A91:A97 A4:A7 A23:A31 A62:A77 A88 A82:A85 A9:A21">
+    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="B89">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="B60">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A59">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+  <conditionalFormatting sqref="A60:A61">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85 A40:A42">
-    <cfRule type="duplicateValues" dxfId="13" priority="24"/>
+  <conditionalFormatting sqref="A87 A42:A44">
+    <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76:B77">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="B78:B79">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="B86">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B90">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:A79">
-    <cfRule type="duplicateValues" dxfId="5" priority="37"/>
+  <conditionalFormatting sqref="A78:A81">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741E0CF2-0496-47D3-A594-5CD2CB00F23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD5450-4684-48E1-A036-C19F04FF4A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -441,7 +441,7 @@
     <t>Farm</t>
   </si>
   <si>
-    <t>Fams</t>
+    <t>Farms</t>
   </si>
 </sst>
 </file>
@@ -500,6 +500,140 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -650,140 +784,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -798,18 +798,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C117" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C117" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C117" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C116">
     <sortCondition ref="C4:C116"/>
     <sortCondition ref="A4:A116"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="1">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1114,7 +1114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1582,7 +1584,7 @@
       </c>
       <c r="B39" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>65</v>
@@ -2526,63 +2528,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B7 B61:B77 B87:B88 B91:B116 B80:B85 B9:B59">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A116 A100:A109 A35:A41 A45:A59 A91:A97 A4:A7 A23:A31 A62:A77 A88 A82:A85 A9:A21">
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A61">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87 A42:A44">
-    <cfRule type="duplicateValues" dxfId="8" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B79">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A81">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD5450-4684-48E1-A036-C19F04FF4A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D688282-081C-48FD-B50D-94EB34361840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="15390" windowHeight="9532" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
   <si>
     <t>Stem</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>Farms</t>
+  </si>
+  <si>
+    <t>Deten</t>
   </si>
 </sst>
 </file>
@@ -500,140 +503,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -784,6 +653,140 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -798,18 +801,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C117" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C117" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C116">
-    <sortCondition ref="C4:C116"/>
-    <sortCondition ref="A4:A116"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C118" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C118" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C117">
+    <sortCondition ref="C4:C117"/>
+    <sortCondition ref="A4:A117"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="16">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1112,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1819,32 +1822,32 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B61" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1855,20 +1858,20 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>17</v>
+      <c r="A62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1892,7 +1895,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1916,7 +1919,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1928,7 +1931,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1940,7 +1943,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1952,7 +1955,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1976,7 +1979,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1987,32 +1990,32 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B73" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2023,48 +2026,48 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B77" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>3</v>
@@ -2072,11 +2075,11 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B80" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>3</v>
@@ -2084,19 +2087,19 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B81" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B82" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2107,56 +2110,56 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B83" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B84" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B85" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B86" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="B86" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B87" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2168,31 +2171,31 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B88" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="4" t="s">
-        <v>101</v>
+      <c r="A89" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B89" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>119</v>
+      <c r="A90" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B90" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2203,32 +2206,32 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B92" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B92" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B93" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2239,44 +2242,44 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B94" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="A94" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B95" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B96" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="A96" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B97" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2287,44 +2290,44 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B100" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B101" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2336,7 +2339,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B102" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2348,55 +2351,55 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B103" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B104" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B105" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B106" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B106" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B107" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2408,43 +2411,43 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B108" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B109" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B110" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B111" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2456,7 +2459,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B112" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2467,20 +2470,20 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B113" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="A113" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B114" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2491,22 +2494,22 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B115" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B115" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B116" s="1">
+      <c r="B116" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2515,76 +2518,88 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B117" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A117" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7 B61:B77 B87:B88 B91:B116 B80:B85 B9:B59">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="B4:B7 B62:B78 B88:B89 B92:B117 B81:B86 B9:B60">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113:A116 A100:A109 A35:A41 A45:A59 A91:A97 A4:A7 A23:A31 A62:A77 A88 A82:A85 A9:A21">
-    <cfRule type="duplicateValues" dxfId="17" priority="23"/>
+  <conditionalFormatting sqref="A114:A117 A101:A110 A35:A41 A45:A60 A92:A98 A4:A7 A23:A31 A63:A78 A89 A83:A86 A9:A21">
+    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="B90">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="B61">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A61">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+  <conditionalFormatting sqref="A61:A62">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87 A42:A44">
-    <cfRule type="duplicateValues" dxfId="13" priority="24"/>
+  <conditionalFormatting sqref="A88 A42:A44">
+    <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B79">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="B79:B80">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="B87">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B91">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:A81">
-    <cfRule type="duplicateValues" dxfId="5" priority="37"/>
+  <conditionalFormatting sqref="A79:A82">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D688282-081C-48FD-B50D-94EB34361840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BB922-335A-4A18-86E7-6F0177182858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="15390" windowHeight="9532" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
   <si>
     <t>Stem</t>
   </si>
@@ -445,6 +445,12 @@
   </si>
   <si>
     <t>Deten</t>
+  </si>
+  <si>
+    <t>Chede</t>
+  </si>
+  <si>
+    <t>Gramm</t>
   </si>
 </sst>
 </file>
@@ -801,11 +807,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C118" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C118" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C117">
-    <sortCondition ref="C4:C117"/>
-    <sortCondition ref="A4:A117"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C120" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C120" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C119">
+    <sortCondition ref="C4:C119"/>
+    <sortCondition ref="A4:A119"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1115,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1450,32 +1456,32 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="A28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="A29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1487,31 +1493,31 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1522,108 +1528,108 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B40" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>65</v>
@@ -1631,35 +1637,35 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>65</v>
@@ -1667,55 +1673,55 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B46" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B49" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1726,20 +1732,20 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="A51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1750,36 +1756,36 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>33</v>
+      <c r="A53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>33</v>
@@ -1787,7 +1793,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1798,32 +1804,32 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>93</v>
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>93</v>
+      <c r="A58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B59" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1834,20 +1840,20 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="A60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B61" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1858,44 +1864,44 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B64" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1907,7 +1913,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1919,7 +1925,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1931,7 +1937,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1943,7 +1949,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1955,7 +1961,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1967,7 +1973,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1979,7 +1985,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1991,7 +1997,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2002,56 +2008,56 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2063,7 +2069,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2074,20 +2080,20 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B81" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2099,43 +2105,43 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B82" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="A84" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B85" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2147,7 +2153,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2159,7 +2165,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B87" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2170,32 +2176,32 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B88" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="A88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="4" t="s">
-        <v>101</v>
+      <c r="A90" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B90" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2207,115 +2213,115 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B91" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B92" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="A92" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B93" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="B95" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B96" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B97" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B98" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2327,7 +2333,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B101" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2338,20 +2344,20 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B102" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="A102" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B103" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2363,115 +2369,115 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B104" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B105" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="A106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B107" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="A108" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B109" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B110" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="B112" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B111" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B113" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2482,94 +2488,118 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B114" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B116" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B115" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B116" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B117" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>125</v>
+      <c r="C117" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A118" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A32:A34">
+  <conditionalFormatting sqref="A34:A36">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7 B62:B78 B88:B89 B92:B117 B81:B86 B9:B60">
+  <conditionalFormatting sqref="B4:B7 B64:B80 B90:B91 B94:B119 B83:B88 B9:B62">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114:A117 A101:A110 A35:A41 A45:A60 A92:A98 A4:A7 A23:A31 A63:A78 A89 A83:A86 A9:A21">
+  <conditionalFormatting sqref="A116:A119 A103:A112 A37:A43 A47:A62 A94:A100 A4:A7 A23:A33 A65:A80 A91 A85:A88 A9:A21">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B92">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+  <conditionalFormatting sqref="B63">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
+  <conditionalFormatting sqref="A63:A64">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88 A42:A44">
+  <conditionalFormatting sqref="A90 A44:A46">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B80">
+  <conditionalFormatting sqref="B81:B82">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2582,23 +2612,23 @@
   <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
+  <conditionalFormatting sqref="B89">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+  <conditionalFormatting sqref="A89">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
+  <conditionalFormatting sqref="B93">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
+  <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A82">
+  <conditionalFormatting sqref="A81:A84">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BB922-335A-4A18-86E7-6F0177182858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA35EA-DEF1-4D01-964E-3A5514D88816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="140">
   <si>
     <t>Stem</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>Gramm</t>
+  </si>
+  <si>
+    <t>Herd</t>
   </si>
 </sst>
 </file>
@@ -807,11 +810,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C120" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C120" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C119">
-    <sortCondition ref="C4:C119"/>
-    <sortCondition ref="A4:A119"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C121" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C121" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C120">
+    <sortCondition ref="C4:C120"/>
+    <sortCondition ref="A4:A120"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1121,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1673,67 +1676,67 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B46" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B49" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="A50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1745,7 +1748,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1756,44 +1759,44 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1805,11 +1808,11 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>33</v>
@@ -1817,31 +1820,31 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>93</v>
+      <c r="A59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B60" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1853,7 +1856,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B61" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1864,32 +1867,32 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B64" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1900,20 +1903,20 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>17</v>
+      <c r="A65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1925,7 +1928,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1937,7 +1940,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1949,7 +1952,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1973,7 +1976,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1997,7 +2000,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2009,7 +2012,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2021,7 +2024,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2032,32 +2035,32 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B77" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2068,48 +2071,48 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B80" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B82" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>3</v>
@@ -2117,11 +2120,11 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>3</v>
@@ -2129,19 +2132,19 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B84" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B85" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2152,56 +2155,56 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B86" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B87" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="B88" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B90" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2213,31 +2216,31 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B91" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="4" t="s">
-        <v>101</v>
+      <c r="A92" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B92" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="3" t="s">
-        <v>119</v>
+      <c r="A93" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B93" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2248,32 +2251,32 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B96" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2284,44 +2287,44 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="A97" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B98" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B99" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="A99" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2332,44 +2335,44 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B101" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B102" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B102" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B103" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B103" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B104" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2381,7 +2384,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B105" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2393,55 +2396,55 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B106" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B107" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B109" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B110" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2453,43 +2456,43 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B111" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B112" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B113" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B113" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B114" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2501,7 +2504,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B115" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2512,20 +2515,20 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="A116" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B116" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B117" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2536,22 +2539,22 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="1">
+      <c r="B119" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2560,14 +2563,26 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B121" s="4">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2575,31 +2590,31 @@
   <conditionalFormatting sqref="A34:A36">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7 B64:B80 B90:B91 B94:B119 B83:B88 B9:B62">
+  <conditionalFormatting sqref="B4:B7 B65:B81 B91:B92 B95:B120 B84:B89 B9:B63">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A116:A119 A103:A112 A37:A43 A47:A62 A94:A100 A4:A7 A23:A33 A65:A80 A91 A85:A88 A9:A21">
+  <conditionalFormatting sqref="A117:A120 A104:A113 A37:A43 A48:A63 A95:A101 A4:A7 A23:A33 A66:A81 A92 A86:A89 A9:A21">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
+  <conditionalFormatting sqref="B93">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="B64">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A64">
+  <conditionalFormatting sqref="A64:A65">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90 A44:A46">
+  <conditionalFormatting sqref="A91 A44:A47">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81:B82">
+  <conditionalFormatting sqref="B82:B83">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2612,23 +2627,23 @@
   <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
+  <conditionalFormatting sqref="B90">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
+  <conditionalFormatting sqref="A90">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
+  <conditionalFormatting sqref="B94">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="A94">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A84">
+  <conditionalFormatting sqref="A82:A85">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA35EA-DEF1-4D01-964E-3A5514D88816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AB48B0-1B25-4CAC-8CC7-B27BD8606933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="141">
   <si>
     <t>Stem</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Herd</t>
+  </si>
+  <si>
+    <t>Poult</t>
   </si>
 </sst>
 </file>
@@ -810,11 +813,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C121" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C121" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C120">
-    <sortCondition ref="C4:C120"/>
-    <sortCondition ref="A4:A120"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C122" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C122" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C121">
+    <sortCondition ref="C4:C121"/>
+    <sortCondition ref="A4:A121"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1124,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1759,56 +1762,56 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B54" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1820,11 +1823,11 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>33</v>
@@ -1832,31 +1835,31 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>93</v>
+      <c r="A60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B61" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B62" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1879,32 +1882,32 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B65" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1915,20 +1918,20 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>17</v>
+      <c r="A66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1940,7 +1943,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1952,7 +1955,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1976,7 +1979,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1988,7 +1991,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2000,7 +2003,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2012,7 +2015,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2047,32 +2050,32 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B77" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B78" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2083,48 +2086,48 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B80" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B81" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B82" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>3</v>
@@ -2132,11 +2135,11 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B84" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>3</v>
@@ -2144,19 +2147,19 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B85" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B86" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2167,56 +2170,56 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B88" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B88" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="B89" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B90" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B91" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2228,31 +2231,31 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B92" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
-        <v>101</v>
+      <c r="A93" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B93" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
-        <v>119</v>
+      <c r="A94" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B94" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2263,32 +2266,32 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B96" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B97" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2299,44 +2302,44 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B98" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="A98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B99" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="A100" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B101" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2347,44 +2350,44 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B102" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B103" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B103" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B104" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B104" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B105" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2396,7 +2399,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B106" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2408,55 +2411,55 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B107" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B108" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B110" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="B110" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B111" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2468,43 +2471,43 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B112" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B113" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B114" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B115" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2516,7 +2519,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B116" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2527,20 +2530,20 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="A117" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B118" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2551,22 +2554,22 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B119" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B120" s="1">
+      <c r="B120" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2575,14 +2578,26 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B122" s="4">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2590,31 +2605,31 @@
   <conditionalFormatting sqref="A34:A36">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7 B65:B81 B91:B92 B95:B120 B84:B89 B9:B63">
+  <conditionalFormatting sqref="B4:B7 B66:B82 B92:B93 B96:B121 B85:B90 B9:B64">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A120 A104:A113 A37:A43 A48:A63 A95:A101 A4:A7 A23:A33 A66:A81 A92 A86:A89 A9:A21">
+  <conditionalFormatting sqref="A118:A121 A105:A114 A37:A43 A48:A64 A96:A102 A4:A7 A23:A33 A67:A82 A93 A87:A90 A9:A21">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
+  <conditionalFormatting sqref="B94">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
+  <conditionalFormatting sqref="B65">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A65">
+  <conditionalFormatting sqref="A65:A66">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91 A44:A47">
+  <conditionalFormatting sqref="A92 A44:A47">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B83">
+  <conditionalFormatting sqref="B83:B84">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2627,23 +2642,23 @@
   <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B91">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
+  <conditionalFormatting sqref="A91">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
+  <conditionalFormatting sqref="B95">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
+  <conditionalFormatting sqref="A95">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A85">
+  <conditionalFormatting sqref="A83:A86">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AB48B0-1B25-4CAC-8CC7-B27BD8606933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D355F415-CF49-4BE9-B987-91F065D7813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="142">
   <si>
     <t>Stem</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>Poult</t>
+  </si>
+  <si>
+    <t>Freem</t>
   </si>
 </sst>
 </file>
@@ -813,11 +816,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C122" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C122" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C121">
-    <sortCondition ref="C4:C121"/>
-    <sortCondition ref="A4:A121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C123" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C123" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C122">
+    <sortCondition ref="C4:C122"/>
+    <sortCondition ref="A4:A122"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1127,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1186,32 +1189,32 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1222,20 +1225,20 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1246,24 +1249,24 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -1271,11 +1274,11 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -1283,7 +1286,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1295,7 +1298,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1307,19 +1310,19 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1331,43 +1334,43 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1390,56 +1393,56 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B23" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1451,31 +1454,31 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1486,20 +1489,20 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1511,7 +1514,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1523,23 +1526,23 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>65</v>
@@ -1547,47 +1550,47 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>65</v>
@@ -1595,7 +1598,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1606,44 +1609,44 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1655,11 +1658,11 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>65</v>
@@ -1667,7 +1670,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1678,80 +1681,80 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B47" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B50" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="A51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1762,68 +1765,68 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B54" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B55" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1835,11 +1838,11 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>33</v>
@@ -1847,31 +1850,31 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>93</v>
+      <c r="A61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B62" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1883,7 +1886,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B63" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1894,32 +1897,32 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B66" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1930,20 +1933,20 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>17</v>
+      <c r="A67" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1955,7 +1958,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1967,7 +1970,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1991,7 +1994,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2015,7 +2018,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2039,7 +2042,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2062,32 +2065,32 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B79" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2098,48 +2101,48 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B81" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B82" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B82" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B83" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="B83" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B84" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>3</v>
@@ -2147,11 +2150,11 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B85" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>3</v>
@@ -2159,19 +2162,19 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B86" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B87" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2182,56 +2185,56 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B88" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B89" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B90" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B90" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B91" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B92" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2243,31 +2246,31 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B93" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="4" t="s">
-        <v>101</v>
+      <c r="A94" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B94" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>119</v>
+      <c r="A95" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B95" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2278,32 +2281,32 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B97" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B98" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2314,44 +2317,44 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="A99" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B100" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="A101" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B102" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2362,44 +2365,44 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B104" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B104" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B105" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B105" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B106" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B107" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2423,55 +2426,55 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B108" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B109" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B111" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B111" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B112" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2483,43 +2486,43 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B113" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B114" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B115" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B115" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B116" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2531,7 +2534,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B117" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2542,20 +2545,20 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="A118" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B118" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B119" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2566,22 +2569,22 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B120" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B120" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" s="1">
+      <c r="B121" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2590,75 +2593,87 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B122" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A34:A36">
+  <conditionalFormatting sqref="A35:A37">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7 B66:B82 B92:B93 B96:B121 B85:B90 B9:B64">
+  <conditionalFormatting sqref="B67:B83 B93:B94 B97:B122 B86:B91 B10:B65 B4:B8">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A118:A121 A105:A114 A37:A43 A48:A64 A96:A102 A4:A7 A23:A33 A67:A82 A93 A87:A90 A9:A21">
+  <conditionalFormatting sqref="A119:A122 A106:A115 A38:A44 A49:A65 A97:A103 A4:A8 A24:A34 A68:A83 A94 A88:A91 A10:A22">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
+  <conditionalFormatting sqref="B95">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+  <conditionalFormatting sqref="B66">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A66">
+  <conditionalFormatting sqref="A66:A67">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92 A44:A47">
+  <conditionalFormatting sqref="A93 A45:A48">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B84">
+  <conditionalFormatting sqref="B84:B85">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
+  <conditionalFormatting sqref="B92">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
+  <conditionalFormatting sqref="A92">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
+  <conditionalFormatting sqref="B96">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
+  <conditionalFormatting sqref="A96">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:A86">
+  <conditionalFormatting sqref="A84:A87">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D355F415-CF49-4BE9-B987-91F065D7813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8680F-9F2D-47D6-9D17-A8AEAE904D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
   <si>
     <t>Stem</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Freem</t>
+  </si>
+  <si>
+    <t>Racec</t>
   </si>
 </sst>
 </file>
@@ -816,11 +819,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C123" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C123" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C122">
-    <sortCondition ref="C4:C122"/>
-    <sortCondition ref="A4:A122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C124" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C124" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C123">
+    <sortCondition ref="C4:C123"/>
+    <sortCondition ref="A4:A123"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1130,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1789,56 +1792,56 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B56" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1850,11 +1853,11 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>33</v>
@@ -1862,31 +1865,31 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>93</v>
+      <c r="A62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B63" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1898,7 +1901,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B64" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1909,32 +1912,32 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B67" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1945,20 +1948,20 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>17</v>
+      <c r="A68" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1970,7 +1973,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1982,7 +1985,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1994,7 +1997,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2006,7 +2009,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2018,7 +2021,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2030,7 +2033,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2042,7 +2045,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2054,7 +2057,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2066,7 +2069,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2077,32 +2080,32 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B80" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2113,48 +2116,48 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B82" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B83" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B84" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B85" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>3</v>
@@ -2162,11 +2165,11 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B86" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>3</v>
@@ -2174,19 +2177,19 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B87" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B88" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2197,56 +2200,56 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B89" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B90" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B91" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B91" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="B92" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B93" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2258,31 +2261,31 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B94" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
-        <v>101</v>
+      <c r="A95" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B95" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>119</v>
+      <c r="A96" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B96" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2293,32 +2296,32 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B97" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B98" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B99" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2329,44 +2332,44 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B100" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="A100" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B101" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="A102" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B103" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2377,44 +2380,44 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B104" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B105" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B105" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B106" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B106" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B107" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2426,7 +2429,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B108" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2438,55 +2441,55 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B109" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B110" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B112" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B112" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B113" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2498,43 +2501,43 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B114" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B115" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B115" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="B116" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B116" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B117" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2546,7 +2549,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B118" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2557,20 +2560,20 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B119" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="A119" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B120" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2581,22 +2584,22 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B121" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" s="1">
+      <c r="B122" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2605,14 +2608,26 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B124" s="4">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2620,31 +2635,31 @@
   <conditionalFormatting sqref="A35:A37">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B83 B93:B94 B97:B122 B86:B91 B10:B65 B4:B8">
+  <conditionalFormatting sqref="B68:B84 B94:B95 B98:B123 B87:B92 B4:B8 B10:B66">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119:A122 A106:A115 A38:A44 A49:A65 A97:A103 A4:A8 A24:A34 A68:A83 A94 A88:A91 A10:A22">
+  <conditionalFormatting sqref="A120:A123 A107:A116 A38:A44 A49:A66 A98:A104 A4:A8 A24:A34 A69:A84 A95 A89:A92 A10:A22">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
+  <conditionalFormatting sqref="B96">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
+  <conditionalFormatting sqref="B67">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A67">
+  <conditionalFormatting sqref="A67:A68">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93 A45:A48">
+  <conditionalFormatting sqref="A94 A45:A48">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84:B85">
+  <conditionalFormatting sqref="B85:B86">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2657,23 +2672,23 @@
   <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
+  <conditionalFormatting sqref="B93">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
+  <conditionalFormatting sqref="B97">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
+  <conditionalFormatting sqref="A97">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84:A87">
+  <conditionalFormatting sqref="A85:A88">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8680F-9F2D-47D6-9D17-A8AEAE904D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1DF051-BC66-4D29-A7C0-07D1B15254D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="145">
   <si>
     <t>Stem</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>Racec</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Festi</t>
   </si>
 </sst>
 </file>
@@ -819,11 +825,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C124" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C124" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C123">
-    <sortCondition ref="C4:C123"/>
-    <sortCondition ref="A4:A123"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C125" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C125" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C124">
+    <sortCondition ref="C4:C124"/>
+    <sortCondition ref="A4:A124"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1133,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1540,24 +1546,24 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>65</v>
+      <c r="A34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>65</v>
@@ -1565,47 +1571,47 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>65</v>
@@ -1613,7 +1619,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1624,44 +1630,44 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="A43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1673,11 +1679,11 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>65</v>
@@ -1685,7 +1691,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1696,80 +1702,80 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="A47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B48" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B51" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="A52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1780,20 +1786,20 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B55" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1804,56 +1810,56 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B57" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1865,11 +1871,11 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>33</v>
@@ -1877,31 +1883,31 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>93</v>
+      <c r="A63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B64" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1913,7 +1919,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B65" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1924,32 +1930,32 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B68" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1960,20 +1966,20 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>17</v>
+      <c r="A69" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1985,7 +1991,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1997,7 +2003,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2009,7 +2015,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2021,7 +2027,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2033,7 +2039,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2045,7 +2051,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2057,7 +2063,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2069,7 +2075,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2081,7 +2087,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2092,32 +2098,32 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B81" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2128,48 +2134,48 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="B84" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B86" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>3</v>
@@ -2177,11 +2183,11 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B87" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>3</v>
@@ -2189,19 +2195,19 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B88" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B89" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2212,56 +2218,56 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B90" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B91" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B91" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B92" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B92" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B94" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2273,31 +2279,31 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B95" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="4" t="s">
-        <v>101</v>
+      <c r="A96" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B96" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
-        <v>119</v>
+      <c r="A97" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2308,32 +2314,32 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B98" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2344,44 +2350,44 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B101" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="A101" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B102" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B103" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="A103" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B104" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2392,44 +2398,44 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B105" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B106" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B106" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="B107" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B108" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2441,7 +2447,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B109" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2453,55 +2459,55 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B110" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B111" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B113" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B113" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B114" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2513,43 +2519,43 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B115" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B116" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B116" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="B117" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B117" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B118" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2561,7 +2567,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B119" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2572,20 +2578,20 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B120" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="A120" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B121" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2596,22 +2602,22 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B122" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B122" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" s="1">
+      <c r="B123" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2620,46 +2626,58 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B124" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A124" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A35:A37">
+  <conditionalFormatting sqref="A36:A38">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B84 B94:B95 B98:B123 B87:B92 B4:B8 B10:B66">
+  <conditionalFormatting sqref="B69:B85 B95:B96 B99:B124 B88:B93 B4:B8 B10:B67">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A123 A107:A116 A38:A44 A49:A66 A98:A104 A4:A8 A24:A34 A69:A84 A95 A89:A92 A10:A22">
+  <conditionalFormatting sqref="A121:A124 A108:A117 A39:A45 A50:A67 A99:A105 A4:A8 A24:A35 A70:A85 A96 A90:A93 A10:A22">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
+  <conditionalFormatting sqref="B97">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
+  <conditionalFormatting sqref="B68">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
+  <conditionalFormatting sqref="A68:A69">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94 A45:A48">
+  <conditionalFormatting sqref="A95 A46:A49">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85:B86">
+  <conditionalFormatting sqref="B86:B87">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2672,23 +2690,23 @@
   <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
+  <conditionalFormatting sqref="B94">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="A94">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
+  <conditionalFormatting sqref="B98">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
+  <conditionalFormatting sqref="A98">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85:A88">
+  <conditionalFormatting sqref="A86:A89">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1DF051-BC66-4D29-A7C0-07D1B15254D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E789DF-948D-415D-807A-A5054B07623E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="147">
   <si>
     <t>Stem</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>Festi</t>
+  </si>
+  <si>
+    <t>Co-op</t>
+  </si>
+  <si>
+    <t>Camp</t>
   </si>
 </sst>
 </file>
@@ -825,11 +831,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C125" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C125" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C124">
-    <sortCondition ref="C4:C124"/>
-    <sortCondition ref="A4:A124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C127" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C127" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C126">
+    <sortCondition ref="C4:C126"/>
+    <sortCondition ref="A4:A126"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1139,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1342,56 +1348,56 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1403,7 +1409,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1414,56 +1420,56 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B25" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B26" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1475,67 +1481,67 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B29" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1546,44 +1552,44 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>143</v>
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>65</v>
+      <c r="A36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1594,108 +1600,108 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B44" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>65</v>
@@ -1703,139 +1709,139 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B50" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B51" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B54" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B55" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B56" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B58" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1847,7 +1853,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1858,36 +1864,36 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>33</v>
+      <c r="A60" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>33</v>
@@ -1895,7 +1901,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1906,32 +1912,32 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>93</v>
+      <c r="A64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>93</v>
+      <c r="A65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B66" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1942,20 +1948,20 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="A67" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B68" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1966,44 +1972,44 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B71" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2015,7 +2021,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2027,7 +2033,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2039,7 +2045,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2051,7 +2057,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2063,7 +2069,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2075,7 +2081,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2087,7 +2093,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2099,7 +2105,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2110,56 +2116,56 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="A81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B84" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2171,7 +2177,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B86" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2182,20 +2188,20 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B87" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="A87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B88" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2207,43 +2213,43 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B89" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B90" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="A91" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B92" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2255,7 +2261,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B93" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2267,7 +2273,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B94" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2278,32 +2284,32 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B95" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="A95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
-        <v>101</v>
+      <c r="A97" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B97" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2315,115 +2321,115 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B98" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="A99" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B102" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="B103" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B104" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B105" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B106" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B106" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B107" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2435,7 +2441,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B108" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2446,20 +2452,20 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="A109" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B110" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2471,115 +2477,115 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B111" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B112" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B113" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="A113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B114" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="A115" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B116" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B118" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B117" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="B119" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B118" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B120" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2590,94 +2596,118 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B121" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="B123" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B122" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B124" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>125</v>
+      <c r="C124" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B125" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A125" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A36:A38">
+  <conditionalFormatting sqref="A38:A40">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B85 B95:B96 B99:B124 B88:B93 B4:B8 B10:B67">
+  <conditionalFormatting sqref="B71:B87 B97:B98 B101:B126 B90:B95 B4:B8 B10:B69">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121:A124 A108:A117 A39:A45 A50:A67 A99:A105 A4:A8 A24:A35 A70:A85 A96 A90:A93 A10:A22">
+  <conditionalFormatting sqref="A123:A126 A110:A119 A41:A47 A52:A69 A101:A107 A4:A8 A25:A37 A72:A87 A98 A92:A95 A10:A23">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
+  <conditionalFormatting sqref="B99">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
+  <conditionalFormatting sqref="B70">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A69">
+  <conditionalFormatting sqref="A70:A71">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95 A46:A49">
+  <conditionalFormatting sqref="A97 A48:A51">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86:B87">
+  <conditionalFormatting sqref="B88:B89">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2690,23 +2720,23 @@
   <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
+  <conditionalFormatting sqref="B96">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
+  <conditionalFormatting sqref="A96">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
+  <conditionalFormatting sqref="B100">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="A100">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86:A89">
+  <conditionalFormatting sqref="A88:A91">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E789DF-948D-415D-807A-A5054B07623E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34202143-661F-4C99-AB4A-4C15F16979FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="149">
   <si>
     <t>Stem</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>Camp</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Estat</t>
   </si>
 </sst>
 </file>
@@ -831,11 +837,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C127" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C127" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C126">
-    <sortCondition ref="C4:C126"/>
-    <sortCondition ref="A4:A126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C129" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C129" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
+    <sortCondition ref="C4:C128"/>
+    <sortCondition ref="A4:A128"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1145,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120:C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2585,31 +2591,31 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B120" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B121" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B122" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2620,62 +2626,86 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B124" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B123" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="B125" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B124" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B126" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="B128" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="4" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B129" s="4">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2683,12 +2713,12 @@
   <conditionalFormatting sqref="A38:A40">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B87 B97:B98 B101:B126 B90:B95 B4:B8 B10:B69">
+  <conditionalFormatting sqref="B71:B87 B97:B98 B90:B95 B4:B8 B10:B69 B101:B128">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123:A126 A110:A119 A41:A47 A52:A69 A101:A107 A4:A8 A25:A37 A72:A87 A98 A92:A95 A10:A23">
+  <conditionalFormatting sqref="A125:A128 A110:A121 A41:A47 A52:A69 A101:A107 A4:A8 A25:A37 A72:A87 A98 A92:A95 A10:A23">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34202143-661F-4C99-AB4A-4C15F16979FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2AF056-C03C-4D3A-A579-0A33EBC641DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
   <si>
     <t>Stem</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Estat</t>
+  </si>
+  <si>
+    <t>Party</t>
   </si>
 </sst>
 </file>
@@ -837,11 +840,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C129" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C129" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
-    <sortCondition ref="C4:C128"/>
-    <sortCondition ref="A4:A128"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C130" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C130" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C129">
+    <sortCondition ref="C4:C129"/>
+    <sortCondition ref="A4:A129"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1151,11 +1154,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120:C121"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1366,56 +1367,56 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="A18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1427,7 +1428,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1438,56 +1439,56 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1498,44 +1499,44 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1546,20 +1547,20 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1571,7 +1572,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1582,36 +1583,36 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B37" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>65</v>
@@ -1619,47 +1620,47 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>65</v>
@@ -1667,7 +1668,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1678,44 +1679,44 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="A46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1727,11 +1728,11 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>65</v>
@@ -1739,7 +1740,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1750,128 +1751,128 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B51" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="A52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B53" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B56" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B57" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B58" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B60" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1883,7 +1884,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1894,36 +1895,36 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>33</v>
+      <c r="A62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B63" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>33</v>
@@ -1931,7 +1932,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1942,32 +1943,32 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>93</v>
+      <c r="A66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>93</v>
+      <c r="A67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B68" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1978,20 +1979,20 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="A69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B70" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2002,44 +2003,44 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B73" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2051,7 +2052,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2063,7 +2064,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2075,7 +2076,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2087,7 +2088,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2099,7 +2100,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2111,7 +2112,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2123,7 +2124,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2135,7 +2136,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2146,56 +2147,56 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="A83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="B86" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2206,24 +2207,24 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="A88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B89" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>3</v>
@@ -2231,11 +2232,11 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B90" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>3</v>
@@ -2243,19 +2244,19 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B91" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B92" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2266,56 +2267,56 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B93" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B94" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B95" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B97" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2327,31 +2328,31 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B98" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="4" t="s">
-        <v>101</v>
+      <c r="A99" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B99" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>119</v>
+      <c r="A100" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2362,32 +2363,32 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B101" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B102" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B103" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2398,44 +2399,44 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="A104" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B105" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="A106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B107" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2446,44 +2447,44 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="B109" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B109" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B110" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="B110" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B111" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2495,7 +2496,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B112" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2507,55 +2508,55 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B113" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B114" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B116" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="B116" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B117" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2567,47 +2568,47 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B118" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B119" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B120" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="B120" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B121" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>67</v>
@@ -2615,19 +2616,19 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B122" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B123" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2639,7 +2640,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B124" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2650,20 +2651,20 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B125" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="A125" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B125" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B126" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2674,22 +2675,22 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B128" s="1">
+      <c r="B128" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2698,46 +2699,58 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B129" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A129" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A38:A40">
+  <conditionalFormatting sqref="A39:A41">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B87 B97:B98 B90:B95 B4:B8 B10:B69 B101:B128">
+  <conditionalFormatting sqref="B98:B99 B91:B96 B4:B8 B102:B129 B73:B88 B10:B71">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125:A128 A110:A121 A41:A47 A52:A69 A101:A107 A4:A8 A25:A37 A72:A87 A98 A92:A95 A10:A23">
+  <conditionalFormatting sqref="A126:A129 A111:A122 A42:A48 A54:A71 A102:A108 A4:A8 A26:A38 A74:A88 A52 A99 A93:A96 A10:A24">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
+  <conditionalFormatting sqref="B100">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B72">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A71">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97 A48:A51">
+  <conditionalFormatting sqref="A98 A49:A51 A53">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B89">
+  <conditionalFormatting sqref="B89:B90">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2750,23 +2763,23 @@
   <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
+  <conditionalFormatting sqref="B97">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
+  <conditionalFormatting sqref="A97">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
+  <conditionalFormatting sqref="B101">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="A101">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A91">
+  <conditionalFormatting sqref="A89:A92">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2AF056-C03C-4D3A-A579-0A33EBC641DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0505F61-1B0D-486F-B68A-5682EA4B332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
   <si>
     <t>Stem</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Party</t>
+  </si>
+  <si>
+    <t>Prima</t>
   </si>
 </sst>
 </file>
@@ -840,11 +843,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C130" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C130" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C129">
-    <sortCondition ref="C4:C129"/>
-    <sortCondition ref="A4:A129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C131" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C131" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C130">
+    <sortCondition ref="C4:C130"/>
+    <sortCondition ref="A4:A130"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1154,9 +1157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1571,20 +1576,20 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="A35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1595,36 +1600,36 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B38" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>65</v>
@@ -1632,47 +1637,47 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>65</v>
@@ -1680,7 +1685,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1691,44 +1696,44 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1740,11 +1745,11 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>65</v>
@@ -1752,7 +1757,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1763,24 +1768,24 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B52" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>65</v>
@@ -1788,67 +1793,67 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B53" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B56" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="A57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1859,20 +1864,20 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="A59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B60" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1883,56 +1888,56 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B62" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1944,11 +1949,11 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>33</v>
@@ -1956,31 +1961,31 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>93</v>
+      <c r="A68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B69" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1992,7 +1997,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B70" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2003,32 +2008,32 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B73" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2039,20 +2044,20 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>17</v>
+      <c r="A74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2064,7 +2069,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2076,7 +2081,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2088,7 +2093,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2100,7 +2105,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2112,7 +2117,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2124,7 +2129,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2136,7 +2141,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2148,7 +2153,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2160,7 +2165,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2171,32 +2176,32 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B86" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2208,7 +2213,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2219,24 +2224,24 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B89" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="A89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B90" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>3</v>
@@ -2244,11 +2249,11 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B91" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>3</v>
@@ -2256,19 +2261,19 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B92" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B93" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2279,56 +2284,56 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B94" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B96" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B97" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B97" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B98" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2340,31 +2345,31 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B99" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="4" t="s">
-        <v>101</v>
+      <c r="A100" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
-        <v>119</v>
+      <c r="A101" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B101" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2375,32 +2380,32 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B102" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B103" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2411,44 +2416,44 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="A105" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B106" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="A107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B108" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2459,44 +2464,44 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B110" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B110" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B111" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B111" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B112" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2508,7 +2513,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B113" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2520,55 +2525,55 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B114" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B115" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B117" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="B117" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B118" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2580,47 +2585,47 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B119" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B120" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B121" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="B121" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B122" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>67</v>
@@ -2628,19 +2633,19 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B123" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B124" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2652,7 +2657,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B125" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2663,20 +2668,20 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B126" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="A126" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B126" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B127" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2687,22 +2692,22 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B128" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B128" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B129" s="1">
+      <c r="B129" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2711,46 +2716,58 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A130" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A39:A41">
+  <conditionalFormatting sqref="A40:A42">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98:B99 B91:B96 B4:B8 B102:B129 B73:B88 B10:B71">
+  <conditionalFormatting sqref="B99:B100 B92:B97 B4:B8 B103:B130 B74:B89 B10:B72">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126:A129 A111:A122 A42:A48 A54:A71 A102:A108 A4:A8 A26:A38 A74:A88 A52 A99 A93:A96 A10:A24">
+  <conditionalFormatting sqref="A127:A130 A112:A123 A43:A49 A55:A72 A103:A109 A4:A8 A26:A39 A75:A89 A53 A100 A94:A97 A10:A24">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
+  <conditionalFormatting sqref="B101">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+  <conditionalFormatting sqref="B73">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A73">
+  <conditionalFormatting sqref="A73:A74">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98 A49:A51 A53">
+  <conditionalFormatting sqref="A99 A50:A52 A54">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B90">
+  <conditionalFormatting sqref="B90:B91">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2763,23 +2780,23 @@
   <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
+  <conditionalFormatting sqref="B98">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
+  <conditionalFormatting sqref="A98">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
+  <conditionalFormatting sqref="B102">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="A102">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89:A92">
+  <conditionalFormatting sqref="A90:A93">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0505F61-1B0D-486F-B68A-5682EA4B332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1579D1A5-44AC-4C6C-83E0-F30954E52334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="152">
   <si>
     <t>Stem</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Prima</t>
+  </si>
+  <si>
+    <t>Retir</t>
   </si>
 </sst>
 </file>
@@ -843,11 +846,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C131" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C131" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C130">
-    <sortCondition ref="C4:C130"/>
-    <sortCondition ref="A4:A130"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C132" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C132" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C131">
+    <sortCondition ref="C4:C131"/>
+    <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1157,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1228,32 +1231,32 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1264,20 +1267,20 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1288,24 +1291,24 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -1313,11 +1316,11 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -1325,7 +1328,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1349,31 +1352,31 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B18" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1384,56 +1387,56 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1445,7 +1448,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1456,56 +1459,56 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B26" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1516,44 +1519,44 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1564,44 +1567,44 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1612,36 +1615,36 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B39" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>65</v>
@@ -1649,47 +1652,47 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>65</v>
@@ -1697,7 +1700,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1708,44 +1711,44 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="A48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1757,11 +1760,11 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>65</v>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1780,24 +1783,24 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B53" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>65</v>
@@ -1805,67 +1808,67 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B57" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="A58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B59" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1876,20 +1879,20 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B61" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1900,56 +1903,56 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B63" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1961,11 +1964,11 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>33</v>
@@ -1973,31 +1976,31 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>93</v>
+      <c r="A69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B70" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2009,7 +2012,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B71" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2020,32 +2023,32 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B74" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2056,20 +2059,20 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>17</v>
+      <c r="A75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2105,7 +2108,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2117,7 +2120,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2141,7 +2144,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2165,7 +2168,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2177,7 +2180,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2188,32 +2191,32 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="B87" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2225,7 +2228,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2236,24 +2239,24 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="A90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B91" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>3</v>
@@ -2261,11 +2264,11 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B92" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>3</v>
@@ -2273,19 +2276,19 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B93" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B94" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2296,56 +2299,56 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B95" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B96" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="B97" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B97" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B98" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B98" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B99" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2357,31 +2360,31 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="4" t="s">
-        <v>101</v>
+      <c r="A101" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B101" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>119</v>
+      <c r="A102" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B102" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2392,32 +2395,32 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B103" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B104" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B105" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2428,44 +2431,44 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B106" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="A106" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B107" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="A108" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B109" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2476,44 +2479,44 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="B111" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B111" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B112" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B112" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B113" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2525,7 +2528,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B114" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2537,55 +2540,55 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B115" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B116" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B118" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="B118" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B119" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2597,47 +2600,47 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B120" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B121" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B121" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B122" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="B122" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B123" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>67</v>
@@ -2645,19 +2648,19 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B124" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B125" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2669,7 +2672,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B126" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2680,20 +2683,20 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B127" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="A127" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B128" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2704,22 +2707,22 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B129" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B129" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B130" s="1">
+      <c r="B130" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2728,75 +2731,87 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A40:A42">
+  <conditionalFormatting sqref="A41:A43">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99:B100 B92:B97 B4:B8 B103:B130 B74:B89 B10:B72">
+  <conditionalFormatting sqref="B100:B101 B93:B98 B104:B131 B75:B90 B11:B73 B4:B9">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:A130 A112:A123 A43:A49 A55:A72 A103:A109 A4:A8 A26:A39 A75:A89 A53 A100 A94:A97 A10:A24">
+  <conditionalFormatting sqref="A128:A131 A113:A124 A44:A50 A56:A73 A104:A110 A27:A40 A76:A90 A54 A101 A95:A98 A11:A25 A4:A9">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
+  <conditionalFormatting sqref="B102">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+  <conditionalFormatting sqref="B74">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A74">
+  <conditionalFormatting sqref="A74:A75">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99 A50:A52 A54">
+  <conditionalFormatting sqref="A100 A51:A53 A55">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90:B91">
+  <conditionalFormatting sqref="B91:B92">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+  <conditionalFormatting sqref="B10">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
+  <conditionalFormatting sqref="B99">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="A99">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
+  <conditionalFormatting sqref="B103">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
+  <conditionalFormatting sqref="A103">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90:A93">
+  <conditionalFormatting sqref="A91:A94">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1579D1A5-44AC-4C6C-83E0-F30954E52334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF1D096-B9AB-4774-A0F4-3A079A2A7CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="153">
   <si>
     <t>Stem</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>Retir</t>
+  </si>
+  <si>
+    <t>Loung</t>
   </si>
 </sst>
 </file>
@@ -846,11 +849,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C132" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C132" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C131">
-    <sortCondition ref="C4:C131"/>
-    <sortCondition ref="A4:A131"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C133" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C133" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C132">
+    <sortCondition ref="C4:C132"/>
+    <sortCondition ref="A4:A132"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1160,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B57" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1856,31 +1859,31 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B58" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="A59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1891,20 +1894,20 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B62" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1915,56 +1918,56 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B64" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B66" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1976,11 +1979,11 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>33</v>
@@ -1988,31 +1991,31 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>93</v>
+      <c r="A70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B71" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B72" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2035,32 +2038,32 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B75" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2071,20 +2074,20 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>17</v>
+      <c r="A76" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2120,7 +2123,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2144,7 +2147,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2168,7 +2171,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2180,7 +2183,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2192,7 +2195,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2203,32 +2206,32 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B87" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="B88" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2240,7 +2243,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2251,24 +2254,24 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="A91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B92" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>3</v>
@@ -2276,11 +2279,11 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B93" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>3</v>
@@ -2288,19 +2291,19 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B94" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B95" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2311,56 +2314,56 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B96" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B97" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B97" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B98" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B98" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B99" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2372,31 +2375,31 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B101" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="4" t="s">
-        <v>101</v>
+      <c r="A102" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B102" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
-        <v>119</v>
+      <c r="A103" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B103" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2407,32 +2410,32 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B104" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B105" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B106" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2443,44 +2446,44 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="A107" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B108" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="A109" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B110" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2491,44 +2494,44 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B111" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B112" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B112" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B113" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B113" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B114" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2540,7 +2543,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B115" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2552,55 +2555,55 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B116" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B117" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B119" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="B119" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B120" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2612,47 +2615,47 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B121" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B122" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B123" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="B123" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B124" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>67</v>
@@ -2660,19 +2663,19 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B125" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B126" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2684,7 +2687,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B127" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2695,20 +2698,20 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B128" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="A128" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B129" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2719,22 +2722,22 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B130" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B130" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B131" s="1">
+      <c r="B131" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2743,14 +2746,26 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B133" s="4">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2758,31 +2773,31 @@
   <conditionalFormatting sqref="A41:A43">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B101 B93:B98 B104:B131 B75:B90 B11:B73 B4:B9">
+  <conditionalFormatting sqref="B101:B102 B94:B99 B105:B132 B76:B91 B4:B9 B11:B74">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:A131 A113:A124 A44:A50 A56:A73 A104:A110 A27:A40 A76:A90 A54 A101 A95:A98 A11:A25 A4:A9">
+  <conditionalFormatting sqref="A129:A132 A114:A125 A44:A50 A56:A74 A105:A111 A27:A40 A77:A91 A54 A102 A96:A99 A11:A25 A4:A9">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
+  <conditionalFormatting sqref="B103">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
+  <conditionalFormatting sqref="B75">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A75">
+  <conditionalFormatting sqref="A75:A76">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100 A51:A53 A55">
+  <conditionalFormatting sqref="A101 A51:A53 A55">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B92">
+  <conditionalFormatting sqref="B92:B93">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2795,23 +2810,23 @@
   <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
+  <conditionalFormatting sqref="B100">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
+  <conditionalFormatting sqref="A100">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
+  <conditionalFormatting sqref="B104">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
+  <conditionalFormatting sqref="A104">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A94">
+  <conditionalFormatting sqref="A92:A95">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF1D096-B9AB-4774-A0F4-3A079A2A7CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930F3E9-0242-48B8-8AE8-1183649BC7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="155">
   <si>
     <t>Stem</t>
   </si>
@@ -493,6 +493,12 @@
   </si>
   <si>
     <t>Loung</t>
+  </si>
+  <si>
+    <t>Prote</t>
+  </si>
+  <si>
+    <t>COVIDiots</t>
   </si>
 </sst>
 </file>
@@ -849,11 +855,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C133" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C133" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C132">
-    <sortCondition ref="C4:C132"/>
-    <sortCondition ref="A4:A132"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C134" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C134" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C133">
+    <sortCondition ref="C4:C133"/>
+    <sortCondition ref="A4:A133"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1163,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1535,43 +1541,43 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1582,44 +1588,44 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B36" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1630,36 +1636,36 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B40" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>65</v>
@@ -1667,47 +1673,47 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>65</v>
@@ -1715,7 +1721,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1726,44 +1732,44 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="A49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1775,11 +1781,11 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>65</v>
@@ -1787,7 +1793,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1798,24 +1804,24 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>65</v>
@@ -1823,43 +1829,43 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B55" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B57" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B58" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1871,31 +1877,31 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B59" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="A60" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1906,20 +1912,20 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B63" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1930,56 +1936,56 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1991,11 +1997,11 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>33</v>
@@ -2003,31 +2009,31 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>93</v>
+      <c r="A71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B72" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2039,7 +2045,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B73" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2050,32 +2056,32 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B76" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2086,20 +2092,20 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>17</v>
+      <c r="A77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2111,7 +2117,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2123,7 +2129,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2135,7 +2141,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2147,7 +2153,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2159,7 +2165,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2171,7 +2177,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2183,7 +2189,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2195,7 +2201,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2207,7 +2213,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2218,32 +2224,32 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="B89" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B90" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2255,7 +2261,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2266,24 +2272,24 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="A92" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B93" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>3</v>
@@ -2291,11 +2297,11 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B94" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>3</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B95" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B96" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2326,56 +2332,56 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B98" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B98" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B99" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B100" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B100" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B101" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2387,31 +2393,31 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B102" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="4" t="s">
-        <v>101</v>
+      <c r="A103" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B103" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>119</v>
+      <c r="A104" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B104" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2422,32 +2428,32 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B106" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B107" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2458,44 +2464,44 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B108" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="A108" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B109" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="A110" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B111" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2506,44 +2512,44 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B112" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B113" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B114" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B114" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B115" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2555,7 +2561,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B116" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2567,55 +2573,55 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B117" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B118" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B120" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="B120" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B121" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2627,47 +2633,47 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B122" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B123" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B124" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C124" s="3" t="s">
+      <c r="B124" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B125" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>67</v>
@@ -2675,19 +2681,19 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B126" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B127" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2699,7 +2705,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B128" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2710,20 +2716,20 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B129" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="A129" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B129" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B130" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2734,22 +2740,22 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B131" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B131" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B132" s="1">
+      <c r="B132" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2758,46 +2764,58 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A133" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B133" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A41:A43">
+  <conditionalFormatting sqref="A42:A44">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B101:B102 B94:B99 B105:B132 B76:B91 B4:B9 B11:B74">
+  <conditionalFormatting sqref="B102:B103 B95:B100 B106:B133 B77:B92 B4:B9 B11:B75">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A129:A132 A114:A125 A44:A50 A56:A74 A105:A111 A27:A40 A77:A91 A54 A102 A96:A99 A11:A25 A4:A9">
+  <conditionalFormatting sqref="A130:A133 A115:A126 A45:A51 A57:A75 A106:A112 A27:A41 A78:A92 A55 A103 A97:A100 A11:A25 A4:A9">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
+  <conditionalFormatting sqref="B104">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
+  <conditionalFormatting sqref="B76">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:A76">
+  <conditionalFormatting sqref="A76:A77">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101 A51:A53 A55">
+  <conditionalFormatting sqref="A102 A52:A54 A56">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B93">
+  <conditionalFormatting sqref="B93:B94">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2810,23 +2828,23 @@
   <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
+  <conditionalFormatting sqref="B101">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="A101">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
+  <conditionalFormatting sqref="B105">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
+  <conditionalFormatting sqref="A105">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:A95">
+  <conditionalFormatting sqref="A93:A96">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930F3E9-0242-48B8-8AE8-1183649BC7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EB427-C1FE-4498-88D2-66E5FB954EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="157">
   <si>
     <t>Stem</t>
   </si>
@@ -499,6 +499,12 @@
   </si>
   <si>
     <t>COVIDiots</t>
+  </si>
+  <si>
+    <t>Lodge</t>
+  </si>
+  <si>
+    <t>StarT</t>
   </si>
 </sst>
 </file>
@@ -855,11 +861,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C134" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C134" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C133">
-    <sortCondition ref="C4:C133"/>
-    <sortCondition ref="A4:A133"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C136" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C136" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C135">
+    <sortCondition ref="C4:C135"/>
+    <sortCondition ref="A4:A135"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1169,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1252,32 +1258,32 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1288,20 +1294,20 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B11" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1312,24 +1318,24 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -1337,11 +1343,11 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -1349,7 +1355,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1361,7 +1367,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1373,31 +1379,31 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B19" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1408,56 +1414,56 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1469,7 +1475,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1480,56 +1486,56 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B28" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1540,56 +1546,56 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>154</v>
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1600,44 +1606,44 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B37" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1648,36 +1654,36 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B41" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>65</v>
@@ -1685,47 +1691,47 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>65</v>
@@ -1733,7 +1739,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1744,44 +1750,44 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="A50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B51" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1793,11 +1799,11 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>65</v>
@@ -1805,7 +1811,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1816,24 +1822,24 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B55" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>65</v>
@@ -1841,43 +1847,43 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B56" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B59" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1889,31 +1895,31 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B60" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="A61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1924,20 +1930,20 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1948,56 +1954,56 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2009,11 +2015,11 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>33</v>
@@ -2021,31 +2027,31 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>93</v>
+      <c r="A72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B73" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2057,7 +2063,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B74" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2068,32 +2074,32 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2104,20 +2110,20 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>17</v>
+      <c r="A78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2129,7 +2135,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B80" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2141,7 +2147,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2153,7 +2159,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2165,7 +2171,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2177,7 +2183,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2189,7 +2195,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2201,7 +2207,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2213,7 +2219,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2225,7 +2231,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2236,32 +2242,32 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B89" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B90" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2273,7 +2279,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2284,24 +2290,24 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B93" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="A93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B94" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>3</v>
@@ -2309,11 +2315,11 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B95" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>3</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B96" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B97" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2344,56 +2350,56 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B98" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B99" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B100" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B100" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="B101" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B102" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2405,31 +2411,31 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B103" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="4" t="s">
-        <v>101</v>
+      <c r="A104" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B104" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
-        <v>119</v>
+      <c r="A105" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B105" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2440,32 +2446,32 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B106" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B107" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B108" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2476,44 +2482,44 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="A109" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B110" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="A111" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B112" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2524,44 +2530,44 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B113" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B114" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="3" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B115" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="B115" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B116" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2572,152 +2578,152 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B117" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="A117" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B118" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B119" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="A120" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B121" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="A122" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B123" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B125" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B124" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B125" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B126" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="B126" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B127" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B128" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B129" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2728,123 +2734,147 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B131" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B130" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B132" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B131" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B132" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B133" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>125</v>
+      <c r="C133" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A134" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B135" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A42:A44">
+  <conditionalFormatting sqref="A43:A45">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B103 B95:B100 B106:B133 B77:B92 B4:B9 B11:B75">
+  <conditionalFormatting sqref="B103:B104 B96:B101 B78:B93 B12:B76 B4:B10 B107:B135">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A130:A133 A115:A126 A45:A51 A57:A75 A106:A112 A27:A41 A78:A92 A55 A103 A97:A100 A11:A25 A4:A9">
+  <conditionalFormatting sqref="A132:A135 A116:A128 A46:A52 A58:A76 A107:A113 A28:A42 A79:A93 A56 A104 A98:A101 A12:A26 A4:A10">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
+  <conditionalFormatting sqref="B105">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
+  <conditionalFormatting sqref="B77">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:A77">
+  <conditionalFormatting sqref="A77:A78">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102 A52:A54 A56">
+  <conditionalFormatting sqref="A103 A53:A55 A57">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93:B94">
+  <conditionalFormatting sqref="B94:B95">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="B11">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
+  <conditionalFormatting sqref="B102">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="A102">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
+  <conditionalFormatting sqref="B106">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
+  <conditionalFormatting sqref="A106">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A96">
+  <conditionalFormatting sqref="A94:A97">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EB427-C1FE-4498-88D2-66E5FB954EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B05CEE-F04E-4531-81CD-44CC964E2EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="159">
   <si>
     <t>Stem</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>StarT</t>
+  </si>
+  <si>
+    <t>Cathe</t>
+  </si>
+  <si>
+    <t>Churc</t>
   </si>
 </sst>
 </file>
@@ -861,11 +867,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C136" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C136" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C135">
-    <sortCondition ref="C4:C135"/>
-    <sortCondition ref="A4:A135"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C138" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C138" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C137">
+    <sortCondition ref="C4:C137"/>
+    <sortCondition ref="A4:A137"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1175,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1390,20 +1396,20 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="A18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B19" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1414,10 +1420,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -1426,44 +1432,44 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="A21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
+      <c r="A22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1475,19 +1481,19 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1498,20 +1504,20 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1523,7 +1529,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B29" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1535,103 +1541,103 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B32" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B33" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B34" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B35" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="A37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B38" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1643,7 +1649,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1654,56 +1660,56 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>143</v>
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>65</v>
+      <c r="A43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1714,108 +1720,108 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B46" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B51" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>65</v>
@@ -1823,163 +1829,163 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B57" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="A58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B59" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B61" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B64" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B67" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1991,7 +1997,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2002,36 +2008,36 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>33</v>
+      <c r="A69" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B70" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B71" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>33</v>
@@ -2039,7 +2045,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2050,32 +2056,32 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>93</v>
+      <c r="A73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>93</v>
+      <c r="A74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B75" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2086,20 +2092,20 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="A76" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2110,44 +2116,44 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B80" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B81" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2159,7 +2165,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B82" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2171,7 +2177,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2183,7 +2189,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2195,7 +2201,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2207,7 +2213,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2219,7 +2225,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2231,7 +2237,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2243,7 +2249,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2254,44 +2260,44 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B90" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="A90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>3</v>
+      <c r="A92" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B93" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2302,32 +2308,32 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B94" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="A94" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="A95" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B96" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2339,43 +2345,43 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B97" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B98" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="A99" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2387,7 +2393,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B101" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2399,7 +2405,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B102" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2410,32 +2416,32 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B103" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="A103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B104" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="4" t="s">
-        <v>101</v>
+      <c r="A105" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B105" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2447,115 +2453,115 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B106" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B107" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="A107" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B108" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="B110" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B111" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B112" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B111" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B113" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B113" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B114" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B114" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B115" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2567,7 +2573,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B116" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2579,7 +2585,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B117" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2591,7 +2597,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B118" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2602,152 +2608,152 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B119" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="A119" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B120" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B121" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="A122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B123" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="A124" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B125" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B126" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B127" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B128" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="B128" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B129" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B130" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B131" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2758,94 +2764,118 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B133" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B132" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="B134" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A133" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B133" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B134" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B135" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>125</v>
+      <c r="C135" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A136" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A136" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B136" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A43:A45">
+  <conditionalFormatting sqref="A45:A47">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103:B104 B96:B101 B78:B93 B12:B76 B4:B10 B107:B135">
+  <conditionalFormatting sqref="B105:B106 B98:B103 B80:B95 B4:B10 B109:B137 B12:B78">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A132:A135 A116:A128 A46:A52 A58:A76 A107:A113 A28:A42 A79:A93 A56 A104 A98:A101 A12:A26 A4:A10">
+  <conditionalFormatting sqref="A134:A137 A118:A130 A48:A54 A60:A78 A109:A115 A30:A44 A81:A95 A58 A106 A100:A103 A12:A28 A4:A10">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
+  <conditionalFormatting sqref="B107">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
+  <conditionalFormatting sqref="B79">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A78">
+  <conditionalFormatting sqref="A79:A80">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103 A53:A55 A57">
+  <conditionalFormatting sqref="A105 A55:A57 A59">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94:B95">
+  <conditionalFormatting sqref="B96:B97">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2858,23 +2888,23 @@
   <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
+  <conditionalFormatting sqref="B104">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
+  <conditionalFormatting sqref="A104">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
+  <conditionalFormatting sqref="B108">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="A108">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94:A97">
+  <conditionalFormatting sqref="A96:A99">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B05CEE-F04E-4531-81CD-44CC964E2EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F705B766-B21B-430E-BE43-22AD66E7EAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="160">
   <si>
     <t>Stem</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>Churc</t>
+  </si>
+  <si>
+    <t>Chale</t>
   </si>
 </sst>
 </file>
@@ -867,11 +870,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C138" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C138" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C137">
-    <sortCondition ref="C4:C137"/>
-    <sortCondition ref="A4:A137"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C139" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C139" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C138">
+    <sortCondition ref="C4:C138"/>
+    <sortCondition ref="A4:A138"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
@@ -1181,11 +1184,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2320,36 +2321,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B97" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>3</v>
@@ -2357,11 +2358,11 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B98" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>3</v>
@@ -2369,19 +2370,19 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B99" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2392,56 +2393,56 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B101" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B102" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B102" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="B103" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B103" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B105" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2453,31 +2454,31 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B106" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="4" t="s">
-        <v>101</v>
+      <c r="A107" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B107" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="3" t="s">
-        <v>119</v>
+      <c r="A108" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B108" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2488,32 +2489,32 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B109" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B110" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B110" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B111" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2524,44 +2525,44 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B112" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="A112" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B113" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B114" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="A114" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B115" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2572,68 +2573,68 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="B117" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="3" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B117" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="B118" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B118" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="B119" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="3" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B119" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B120" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="B120" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B121" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2645,55 +2646,55 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B122" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B123" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B124" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B125" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="B125" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B126" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2705,47 +2706,47 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B127" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B128" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B129" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C129" s="3" t="s">
+      <c r="B129" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B130" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>67</v>
@@ -2753,19 +2754,19 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B131" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B132" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2777,7 +2778,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B133" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2788,20 +2789,20 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B134" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="A134" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B134" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B135" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2812,22 +2813,22 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B136" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B137" s="1">
+      <c r="B137" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2836,14 +2837,26 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B139" s="4">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2851,15 +2864,15 @@
   <conditionalFormatting sqref="A45:A47">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B106 B98:B103 B80:B95 B4:B10 B109:B137 B12:B78">
+  <conditionalFormatting sqref="B106:B107 B99:B104 B4:B10 B110:B138 B12:B78 B80:B96">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A134:A137 A118:A130 A48:A54 A60:A78 A109:A115 A30:A44 A81:A95 A58 A106 A100:A103 A12:A28 A4:A10">
+  <conditionalFormatting sqref="A135:A138 A119:A131 A48:A54 A60:A78 A110:A116 A30:A44 A81:A96 A58 A107 A101:A104 A12:A28 A4:A10">
     <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B107">
+  <conditionalFormatting sqref="B108">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2872,10 +2885,10 @@
   <conditionalFormatting sqref="A79:A80">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105 A55:A57 A59">
+  <conditionalFormatting sqref="A106 A55:A57 A59">
     <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96:B97">
+  <conditionalFormatting sqref="B97:B98">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2888,23 +2901,23 @@
   <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
+  <conditionalFormatting sqref="B105">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
+  <conditionalFormatting sqref="A105">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108">
+  <conditionalFormatting sqref="B109">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
+  <conditionalFormatting sqref="A109">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96:A99">
+  <conditionalFormatting sqref="A97:A100">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F705B766-B21B-430E-BE43-22AD66E7EAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CA1CB0-BD3C-405B-8872-4B3C4B8A70CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="163">
   <si>
     <t>Stem</t>
   </si>
@@ -514,6 +514,15 @@
   </si>
   <si>
     <t>Chale</t>
+  </si>
+  <si>
+    <t>Crick</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Club</t>
   </si>
 </sst>
 </file>
@@ -571,7 +580,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -870,18 +899,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C139" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C139" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C138">
-    <sortCondition ref="C4:C138"/>
-    <sortCondition ref="A4:A138"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C142" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:C142" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C141">
+    <sortCondition ref="C4:C141"/>
+    <sortCondition ref="A4:A141"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{CDEDF14B-914C-4CEA-973E-A56B16190926}" name="Length" dataDxfId="18">
       <calculatedColumnFormula>LEN(Cluster_Keywords[[#This Row],[Stem]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{F9C5317A-6D9E-4FF5-BF82-B591A2A1953F}" name="Cluster Category" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1184,9 +1213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1781,56 +1812,56 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="A53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1842,11 +1873,11 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>65</v>
@@ -1854,7 +1885,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1865,24 +1896,24 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="A57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B58" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>65</v>
@@ -1890,43 +1921,43 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B59" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B61" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B62" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1938,31 +1969,31 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B63" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="A64" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B65" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1973,20 +2004,20 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="A66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1997,72 +2028,72 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B70" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B71" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B73" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>33</v>
@@ -2070,7 +2101,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2081,32 +2112,32 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>93</v>
+      <c r="A75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>93</v>
+      <c r="A76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B77" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2117,20 +2148,20 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="A78" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2141,44 +2172,44 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B82" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B82" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2190,7 +2221,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2202,7 +2233,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2214,7 +2245,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2226,7 +2257,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2238,7 +2269,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2250,7 +2281,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2262,7 +2293,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B90" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2274,7 +2305,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2285,56 +2316,56 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="A92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B95" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B96" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2346,7 +2377,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="B97" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2357,20 +2388,20 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="A98" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B99" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2382,43 +2413,43 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B101" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B102" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="A102" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B103" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2430,7 +2461,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B104" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2442,7 +2473,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B105" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2453,32 +2484,32 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B106" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="A106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="4" t="s">
-        <v>101</v>
+      <c r="A108" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B108" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2490,115 +2521,115 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B109" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B110" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="A110" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B110" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B111" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B113" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B112" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="B114" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B115" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B114" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B116" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="3" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B115" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B116" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B117" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="B117" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B118" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2610,7 +2641,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B119" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2622,7 +2653,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B120" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2634,7 +2665,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B121" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2645,152 +2676,152 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B122" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="A122" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B123" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B124" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B125" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="A125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B126" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="A127" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B128" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B130" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B129" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B130" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B131" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B131" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B132" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B133" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B134" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2801,124 +2832,168 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B135" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B136" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B135" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="B137" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A136" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B137" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B138" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>125</v>
+      <c r="C138" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A139" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A45:A47">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106:B107 B99:B104 B4:B10 B110:B138 B12:B78 B80:B96">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="B108:B109 B101:B106 B4:B10 B82:B98 B112:B141 B72:B80 B12:B70">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A135:A138 A119:A131 A48:A54 A60:A78 A110:A116 A30:A44 A81:A96 A58 A107 A101:A104 A12:A28 A4:A10">
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="B110">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
+  <conditionalFormatting sqref="B81">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:A82">
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108 A56:A58 A60">
+    <cfRule type="duplicateValues" dxfId="11" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99:B100">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A80">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106 A55:A57 A59">
-    <cfRule type="duplicateValues" dxfId="8" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97:B98">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="B107">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B109">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B111">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  <conditionalFormatting sqref="A99:A102">
+    <cfRule type="duplicateValues" dxfId="3" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:A141 A121:A133 A48:A55 A61:A70 A112:A118 A30:A44 A83:A98 A59 A109 A103:A106 A12:A28 A4:A10 A72:A80">
+    <cfRule type="duplicateValues" dxfId="2" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CA1CB0-BD3C-405B-8872-4B3C4B8A70CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60241DDA-B7AE-42C1-9F45-74FAA1359F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="164">
   <si>
     <t>Stem</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>Club</t>
+  </si>
+  <si>
+    <t>Night</t>
   </si>
 </sst>
 </file>
@@ -899,11 +902,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C142" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:C142" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C141">
-    <sortCondition ref="C4:C141"/>
-    <sortCondition ref="A4:A141"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C143" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:C143" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C142">
+    <sortCondition ref="C4:C142"/>
+    <sortCondition ref="A4:A142"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="19"/>
@@ -1213,11 +1216,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1729,71 +1730,71 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B43" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>65</v>
+      <c r="A44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>65</v>
+      <c r="A45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>65</v>
+      <c r="A46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>65</v>
+      <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>65</v>
@@ -1801,163 +1802,163 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="3">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="A53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="1">
+      <c r="A55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="A56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B61" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B62" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1969,79 +1970,79 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B63" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="A65" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="A66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B67" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="A68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B69" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2053,7 +2054,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B70" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2064,44 +2065,44 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B73" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B74" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2113,11 +2114,11 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>33</v>
@@ -2125,31 +2126,31 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>93</v>
+      <c r="A77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B78" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2161,7 +2162,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2172,32 +2173,32 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B82" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2208,20 +2209,20 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>17</v>
+      <c r="A83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2233,7 +2234,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2245,7 +2246,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2257,7 +2258,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2269,7 +2270,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2281,7 +2282,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2293,7 +2294,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B90" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2305,7 +2306,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2317,7 +2318,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B92" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2329,7 +2330,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B93" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2340,32 +2341,32 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B95" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B96" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2376,48 +2377,48 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B98" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B98" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B99" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B100" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>3</v>
@@ -2425,11 +2426,11 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B101" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>3</v>
@@ -2437,19 +2438,19 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B102" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B103" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2460,56 +2461,56 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B104" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B105" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B105" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="B106" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B107" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B108" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2521,31 +2522,31 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B109" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="4" t="s">
-        <v>101</v>
+      <c r="A110" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B110" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
-        <v>119</v>
+      <c r="A111" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B111" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2556,32 +2557,32 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B112" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B113" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B113" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B114" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2592,44 +2593,44 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B115" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="A115" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B116" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B117" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="A117" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B118" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2640,68 +2641,68 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B119" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="B120" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="3" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="B121" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="B122" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B122" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B123" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="B123" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B124" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2713,55 +2714,55 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B125" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B126" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B127" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B128" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="B128" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B129" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2773,47 +2774,47 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B130" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B131" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B131" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B132" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="B132" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B133" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>67</v>
@@ -2821,19 +2822,19 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B134" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B135" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2845,7 +2846,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B136" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2856,20 +2857,20 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B137" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="A137" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B138" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2880,20 +2881,20 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B139" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>125</v>
+      <c r="A139" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B140" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2904,10 +2905,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A141" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B141" s="1">
+      <c r="A141" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B141" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2916,43 +2917,55 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A142" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B142" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A45:A47">
+  <conditionalFormatting sqref="A49:A51">
     <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B109 B101:B106 B4:B10 B82:B98 B112:B141 B72:B80 B12:B70">
+  <conditionalFormatting sqref="B109:B110 B102:B107 B4:B10 B83:B99 B113:B142 B74:B81 B12:B72">
     <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B110">
+  <conditionalFormatting sqref="B111">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
+  <conditionalFormatting sqref="B82">
     <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A82">
+  <conditionalFormatting sqref="A82:A83">
     <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108 A56:A58 A60">
+  <conditionalFormatting sqref="A109 A59:A61 A63">
     <cfRule type="duplicateValues" dxfId="11" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99:B100">
+  <conditionalFormatting sqref="B100:B101">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2965,39 +2978,40 @@
   <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B107">
+  <conditionalFormatting sqref="B108">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
+  <conditionalFormatting sqref="A108">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B111">
+  <conditionalFormatting sqref="B112">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
+  <conditionalFormatting sqref="A112">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99:A102">
+  <conditionalFormatting sqref="A100:A103">
     <cfRule type="duplicateValues" dxfId="3" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A137:A141 A121:A133 A48:A55 A61:A70 A112:A118 A30:A44 A83:A98 A59 A109 A103:A106 A12:A28 A4:A10 A72:A80">
-    <cfRule type="duplicateValues" dxfId="2" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B73">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:A142 A122:A134 A52:A58 A64:A72 A113:A119 A84:A99 A62 A110 A104:A107 A12:A28 A4:A10 A74:A81 A30:A48">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60241DDA-B7AE-42C1-9F45-74FAA1359F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8C1F7A-0EE5-41C0-AC95-AF2A3B959FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -1729,24 +1729,24 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B44" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>143</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B45" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B46" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1777,36 +1777,36 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B48" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>65</v>
@@ -2941,72 +2941,72 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A49:A51">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B109:B110 B102:B107 B4:B10 B83:B99 B113:B142 B74:B81 B12:B72">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:A83">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109 A59:A61 A63">
-    <cfRule type="duplicateValues" dxfId="11" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:B101">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:A103">
-    <cfRule type="duplicateValues" dxfId="3" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A138:A142 A122:A134 A52:A58 A64:A72 A113:A119 A84:A99 A62 A110 A104:A107 A12:A28 A4:A10 A74:A81 A30:A48">
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  <conditionalFormatting sqref="A138:A142 A122:A134 A52:A58 A64:A72 A113:A119 A84:A99 A62 A110 A104:A107 A12:A28 A4:A10 A74:A81 A30:A42 A44:A49">
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:A51 A43">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8C1F7A-0EE5-41C0-AC95-AF2A3B959FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0A12F-2D01-4403-AEFE-0D9ED7588A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="2205" yWindow="600" windowWidth="12945" windowHeight="13080" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="165">
   <si>
     <t>Stem</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Night</t>
+  </si>
+  <si>
+    <t>Pork</t>
   </si>
 </sst>
 </file>
@@ -902,11 +905,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C143" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:C143" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C142">
-    <sortCondition ref="C4:C142"/>
-    <sortCondition ref="A4:A142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C144" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:C144" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C143">
+    <sortCondition ref="C4:C143"/>
+    <sortCondition ref="A4:A143"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="19"/>
@@ -1216,9 +1219,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2054,43 +2059,43 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B70" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B72" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="B73" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2101,20 +2106,20 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>33</v>
+      <c r="A74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B75" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2126,11 +2131,11 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>33</v>
@@ -2138,31 +2143,31 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>93</v>
+      <c r="A78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2174,7 +2179,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B80" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2185,32 +2190,32 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B83" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2221,20 +2226,20 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>17</v>
+      <c r="A84" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2246,7 +2251,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2258,7 +2263,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B87" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2270,7 +2275,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B88" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2282,7 +2287,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B89" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2294,7 +2299,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B90" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2306,7 +2311,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B91" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2318,7 +2323,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B92" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2330,7 +2335,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B93" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2342,7 +2347,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B94" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2353,32 +2358,32 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B95" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B96" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B97" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2389,48 +2394,48 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B98" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B99" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B100" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B100" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B101" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>3</v>
@@ -2438,11 +2443,11 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B102" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>3</v>
@@ -2450,19 +2455,19 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B103" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B104" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2473,56 +2478,56 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B105" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B106" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B106" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="B107" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B107" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B109" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2534,31 +2539,31 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B110" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="4" t="s">
-        <v>101</v>
+      <c r="A111" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B111" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
-        <v>119</v>
+      <c r="A112" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B112" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2569,32 +2574,32 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B114" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B114" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B115" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2605,44 +2610,44 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B116" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="A116" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B117" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B118" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="A118" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B119" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2653,68 +2658,68 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B120" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="B121" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="3" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="B122" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B122" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="B123" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B123" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B124" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="B124" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B125" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2726,55 +2731,55 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B126" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B127" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B128" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B129" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="B129" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B130" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2786,47 +2791,47 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B131" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B132" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A133" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B133" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C133" s="3" t="s">
+      <c r="B133" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B134" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>67</v>
@@ -2834,19 +2839,19 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B135" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B136" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2858,7 +2863,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B137" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2869,20 +2874,20 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A138" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="A138" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B139" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2893,20 +2898,20 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A140" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B140" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>125</v>
+      <c r="A140" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B141" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2917,10 +2922,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A142" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B142" s="1">
+      <c r="A142" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2929,40 +2934,52 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A143" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B143" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A143" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B144" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B109:B110 B102:B107 B4:B10 B83:B99 B113:B142 B74:B81 B12:B72">
+  <conditionalFormatting sqref="B110:B111 B103:B108 B4:B10 B84:B100 B114:B143 B75:B82 B12:B73">
     <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B111">
+  <conditionalFormatting sqref="B112">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B83">
     <cfRule type="cellIs" dxfId="14" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A83">
+  <conditionalFormatting sqref="A83:A84">
     <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109 A59:A61 A63">
+  <conditionalFormatting sqref="A110 A59:A61 A63">
     <cfRule type="duplicateValues" dxfId="12" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B101">
+  <conditionalFormatting sqref="B101:B102">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2975,34 +2992,34 @@
   <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108">
+  <conditionalFormatting sqref="B109">
     <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
+  <conditionalFormatting sqref="A109">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112">
+  <conditionalFormatting sqref="B113">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="A113">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:A103">
+  <conditionalFormatting sqref="A101:A104">
     <cfRule type="duplicateValues" dxfId="4" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+  <conditionalFormatting sqref="B74">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="A74">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A138:A142 A122:A134 A52:A58 A64:A72 A113:A119 A84:A99 A62 A110 A104:A107 A12:A28 A4:A10 A74:A81 A30:A42 A44:A49">
+  <conditionalFormatting sqref="A139:A143 A123:A135 A52:A58 A64:A73 A114:A120 A85:A100 A62 A111 A105:A108 A12:A28 A4:A10 A75:A82 A30:A42 A44:A49">
     <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A51 A43">

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0A12F-2D01-4403-AEFE-0D9ED7588A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB5A433-BBB6-461A-8FD2-B83E1F06F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="600" windowWidth="12945" windowHeight="13080" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="166">
   <si>
     <t>Stem</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>Pork</t>
+  </si>
+  <si>
+    <t>Novot</t>
   </si>
 </sst>
 </file>
@@ -905,11 +908,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C144" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:C144" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C143">
-    <sortCondition ref="C4:C143"/>
-    <sortCondition ref="A4:A143"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C145" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:C145" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C144">
+    <sortCondition ref="C4:C144"/>
+    <sortCondition ref="A4:A144"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="19"/>
@@ -1219,11 +1222,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2455,7 +2456,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="B103" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2467,19 +2468,19 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B104" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B105" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2490,56 +2491,56 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B106" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B107" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B108" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B108" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B110" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2551,31 +2552,31 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B111" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="4" t="s">
-        <v>101</v>
+      <c r="A112" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B112" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="3" t="s">
-        <v>119</v>
+      <c r="A113" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B113" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2586,32 +2587,32 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B114" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B115" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B115" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B116" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2622,44 +2623,44 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B117" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="A117" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B118" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B119" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C119" s="3" t="s">
+      <c r="A119" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B120" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2670,68 +2671,68 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B121" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="B122" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="B123" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B123" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="B124" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="3" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B124" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B125" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="B125" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B126" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2743,55 +2744,55 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B127" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B128" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B129" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B130" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B130" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B131" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2803,47 +2804,47 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B132" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B133" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B134" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B134" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B135" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>67</v>
@@ -2851,19 +2852,19 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B136" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B137" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2875,7 +2876,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B138" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2886,20 +2887,20 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B139" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="A139" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B139" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B140" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2910,20 +2911,20 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A141" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B141" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>125</v>
+      <c r="A141" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B142" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2934,10 +2935,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B143" s="1">
+      <c r="A143" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B143" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -2946,24 +2947,36 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A144" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B144" s="4">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+      <c r="A144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B144" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B145" s="4">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B110:B111 B103:B108 B4:B10 B84:B100 B114:B143 B75:B82 B12:B73">
+  <conditionalFormatting sqref="B111:B112 B4:B10 B84:B100 B115:B144 B75:B82 B12:B73 B103:B109">
     <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112">
+  <conditionalFormatting sqref="B113">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2976,7 +2989,7 @@
   <conditionalFormatting sqref="A83:A84">
     <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110 A59:A61 A63">
+  <conditionalFormatting sqref="A111 A59:A61 A63">
     <cfRule type="duplicateValues" dxfId="12" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102">
@@ -2992,38 +3005,38 @@
   <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B109">
+  <conditionalFormatting sqref="B110">
     <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
+  <conditionalFormatting sqref="A110">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
+  <conditionalFormatting sqref="B114">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
+  <conditionalFormatting sqref="A114">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:A104">
-    <cfRule type="duplicateValues" dxfId="4" priority="39"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A139:A143 A123:A135 A52:A58 A64:A73 A114:A120 A85:A100 A62 A111 A105:A108 A12:A28 A4:A10 A75:A82 A30:A42 A44:A49">
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  <conditionalFormatting sqref="A140:A144 A124:A136 A52:A58 A64:A73 A115:A121 A85:A100 A62 A112 A106:A109 A12:A28 A4:A10 A75:A82 A30:A42 A44:A49">
+    <cfRule type="duplicateValues" dxfId="2" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A51 A43">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:A105">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB5A433-BBB6-461A-8FD2-B83E1F06F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A4924-014D-4FDC-986C-0315AA47B7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Apart</t>
   </si>
   <si>
-    <t>Housing</t>
-  </si>
-  <si>
     <t>Care</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>Novot</t>
+  </si>
+  <si>
+    <t>Accomodation</t>
   </si>
 </sst>
 </file>
@@ -911,8 +911,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C145" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:C145" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C144">
-    <sortCondition ref="C4:C144"/>
-    <sortCondition ref="A4:A144"/>
+    <sortCondition ref="C12:C144"/>
+    <sortCondition ref="A12:A144"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="19"/>
@@ -1224,7 +1224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1236,1742 +1238,1742 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="B6" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
+      <c r="A9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
+      <c r="A10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B11" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
+      <c r="A13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
+      <c r="A15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="B16" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="B19" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="A20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
+      <c r="A26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
+      <c r="A27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="B29" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
+      <c r="A30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>57</v>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>154</v>
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>24</v>
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B37" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>24</v>
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>24</v>
+      <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>24</v>
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>24</v>
+      <c r="A42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>143</v>
+      <c r="A43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>143</v>
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B45" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B46" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>143</v>
+      <c r="A47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>143</v>
+      <c r="A48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
+      <c r="A51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="1">
+      <c r="A52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>65</v>
+      <c r="C52" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>65</v>
+      <c r="A53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>65</v>
+      <c r="A54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B55" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>65</v>
+      <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>65</v>
+      <c r="A59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>65</v>
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>65</v>
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B63" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>65</v>
+      <c r="A64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B65" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>65</v>
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>65</v>
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>65</v>
+      <c r="A67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>65</v>
+      <c r="A69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="B70" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B71" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B72" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B73" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B74" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>33</v>
+      <c r="A75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B76" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B77" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>33</v>
+      <c r="A78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="B79" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>93</v>
+      <c r="A80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B81" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>93</v>
+      <c r="A82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>93</v>
+      <c r="A83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>93</v>
+      <c r="A84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>17</v>
+      <c r="A87" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>17</v>
+      <c r="A88" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>17</v>
+      <c r="A89" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B90" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>17</v>
+      <c r="A91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>17</v>
+      <c r="A92" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B93" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B94" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B95" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>17</v>
+      <c r="A96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B97" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B98" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B99" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>3</v>
+      <c r="A99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B100" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B101" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>3</v>
+      <c r="A101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B102" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>3</v>
+      <c r="A102" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B103" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>3</v>
+      <c r="A103" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B104" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B107" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B109" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B110" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B111" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B113" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B115" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B117" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B118" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B119" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B120" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B121" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B122" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B124" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B125" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B126" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B127" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B128" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B129" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B130" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B131" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B132" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B133" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B133" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B134" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B134" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B136" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B137" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B138" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B139" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B140" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B141" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B142" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B143" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B144" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B145" s="4">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B111:B112 B4:B10 B84:B100 B115:B144 B75:B82 B12:B73 B103:B109">
+  <conditionalFormatting sqref="B111:B112 B12:B18 B115:B144 B83:B90 B20:B81 B2:B5 B92:B109 B8:B9">
     <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2981,28 +2983,28 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B91">
     <cfRule type="cellIs" dxfId="14" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:A84">
+  <conditionalFormatting sqref="A91:A92">
     <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111 A59:A61 A63">
+  <conditionalFormatting sqref="A111 A67:A69 A71">
     <cfRule type="duplicateValues" dxfId="12" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B101:B102">
+  <conditionalFormatting sqref="B6:B7">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B19">
     <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A19">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
@@ -3021,22 +3023,22 @@
   <conditionalFormatting sqref="A114">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
+  <conditionalFormatting sqref="B82">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
+  <conditionalFormatting sqref="A82">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A140:A144 A124:A136 A52:A58 A64:A73 A115:A121 A85:A100 A62 A112 A106:A109 A12:A28 A4:A10 A75:A82 A30:A42 A44:A49">
+  <conditionalFormatting sqref="A140:A144 A124:A136 A60:A66 A72:A81 A115:A121 A93:A104 A2:A5 A70 A112 A106:A109 A20:A36 A12:A18 A83:A90 A38:A50 A52:A57">
     <cfRule type="duplicateValues" dxfId="2" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A51 A43">
+  <conditionalFormatting sqref="A58:A59 A51">
     <cfRule type="duplicateValues" dxfId="1" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:A105">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+  <conditionalFormatting sqref="A105 A6:A9">
+    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cluster Keywords.xlsx
+++ b/Cluster Keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A4924-014D-4FDC-986C-0315AA47B7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C90DE85-B1C9-486F-BF7F-E8CC08B5EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{15BB510C-F6B5-4020-BE6D-E2276B95B30D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="168">
   <si>
     <t>Stem</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>Accomodation</t>
+  </si>
+  <si>
+    <t>Mercu</t>
+  </si>
+  <si>
+    <t>Pullm</t>
   </si>
 </sst>
 </file>
@@ -908,11 +914,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C145" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:C145" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C144">
-    <sortCondition ref="C12:C144"/>
-    <sortCondition ref="A12:A144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}" name="Cluster_Keywords" displayName="Cluster_Keywords" ref="A1:C147" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:C147" xr:uid="{AEB1DB2D-6498-4CBB-984A-3C1749E64E25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C146">
+    <sortCondition ref="C14:C146"/>
+    <sortCondition ref="A14:A146"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFAC5BCA-7EF5-4658-82A2-C5A5AC1D2A1D}" name="Stem" dataDxfId="19"/>
@@ -1222,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8606BD50-1CE9-4840-8825-9C7823649060}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1318,7 +1324,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B8" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1330,7 +1336,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B9" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1342,43 +1348,43 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="B10" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B11" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B13" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1389,20 +1395,20 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B15" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1413,92 +1419,92 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
+      <c r="A17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B20" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B21" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1510,11 +1516,11 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1533,34 +1539,34 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B29" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1581,10 +1587,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
@@ -1593,44 +1599,44 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
+      <c r="A32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>5</v>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1642,19 +1648,19 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1665,20 +1671,20 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1690,7 +1696,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1702,103 +1708,103 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B42" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B43" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B44" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B45" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1810,7 +1816,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B49" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1821,60 +1827,60 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="A50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B53" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>3</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>142</v>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B55" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -1893,144 +1899,144 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="A56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>64</v>
+      <c r="A57" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B60" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="A61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B65" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>64</v>
@@ -2038,163 +2044,163 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="A69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B71" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="A72" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B73" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="A74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B75" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B78" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B79" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B80" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
         <v>4</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B81" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2205,48 +2211,48 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B84" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B85" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>32</v>
@@ -2254,7 +2260,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B86" s="1">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2265,32 +2271,32 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>92</v>
+      <c r="A87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B88" s="3">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>92</v>
+      <c r="A88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B89" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2301,20 +2307,20 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B90" s="1">
-        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="A90" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B91" s="3">
         <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
@@ -2325,44 +2331,44 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="1">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <f>LEN(Cluster_Keywords[[#This Row],[Stem]])</f>
+        <v>5</v>
+      </c>
+      <